--- a/trend_results/Rivers/ManawatuatHopelands_65cebb97ae.xlsx
+++ b/trend_results/Rivers/ManawatuatHopelands_65cebb97ae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W49"/>
+  <dimension ref="A1:W63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.293629535942192</v>
+        <v>0.706370464057808</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.338709125252628</v>
+        <v>0.661290874747372</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -2025,7 +2025,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.438847350580226</v>
+        <v>0.5611526494197741</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.815785649435723</v>
+        <v>0.184214350564277</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -3098,11 +3098,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D30" t="b">
         <v>1</v>
@@ -3113,31 +3113,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.728439214399688</v>
+        <v>0.0970524713133042</v>
       </c>
       <c r="G30" t="n">
-        <v>0.018957345971564</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.559241706161137</v>
+        <v>0.692307692307692</v>
       </c>
       <c r="I30" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1.2</v>
+        <v>41</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0039319174881421</v>
+        <v>0.485484075793552</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.0090751219706254</v>
+        <v>-0.18072229112567</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0199535645998361</v>
+        <v>2.07942951345659</v>
       </c>
       <c r="N30" t="n">
-        <v>0.327659790678513</v>
+        <v>1.18410750193549</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3177,7 +3177,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -3189,11 +3189,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D31" t="b">
         <v>1</v>
@@ -3204,31 +3204,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.0342818303011911</v>
+        <v>0.23555235911491</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0128755364806867</v>
+        <v>0.0189873417721519</v>
       </c>
       <c r="H31" t="n">
-        <v>0.227467811158798</v>
+        <v>0.626582278481013</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J31" t="n">
-        <v>0.026</v>
+        <v>1.2</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0002496582365003</v>
+        <v>-0.009976818774364101</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>-0.0400378232460899</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0004969387755102</v>
+        <v>0.0166549470061878</v>
       </c>
       <c r="N31" t="n">
-        <v>0.960223986539775</v>
+        <v>-0.831401564530348</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -3280,14 +3280,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -3295,31 +3295,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.999988471582742</v>
+        <v>0.422265455324721</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0042918454935622</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.639484978540773</v>
+        <v>0.797687861271676</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>168</v>
+        <v>11.12</v>
       </c>
       <c r="K32" t="n">
-        <v>-8.60255185248875</v>
+        <v>-0.0039983579638751</v>
       </c>
       <c r="L32" t="n">
-        <v>-12.9427082175382</v>
+        <v>-0.041864145711293</v>
       </c>
       <c r="M32" t="n">
-        <v>-5.0587529528082</v>
+        <v>0.0442738337659127</v>
       </c>
       <c r="N32" t="n">
-        <v>-5.12056657886235</v>
+        <v>-0.0359564565096683</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3371,46 +3371,46 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.957130719274477</v>
+        <v>0.0003156265201638</v>
       </c>
       <c r="G33" t="n">
-        <v>0.424107142857143</v>
+        <v>0.0113636363636364</v>
       </c>
       <c r="H33" t="n">
-        <v>0.580357142857143</v>
+        <v>0.244318181818182</v>
       </c>
       <c r="I33" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>0.0156999102349645</v>
+        <v>0.026</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>0.0007072437973772001</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.0002803042186426</v>
+        <v>0.000332347588717</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>0.0009970427661509999</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>2.72016845145093</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3462,14 +3462,14 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -3477,31 +3477,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.999999883411095</v>
+        <v>0.956679234003777</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0744186046511628</v>
+        <v>0.0056818181818181</v>
       </c>
       <c r="H34" t="n">
-        <v>0.772093023255814</v>
+        <v>0.670454545454545</v>
       </c>
       <c r="I34" t="n">
         <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>0.71</v>
+        <v>135.5</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.0175556214296715</v>
+        <v>-3.99580799068396</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.0231289866252348</v>
+        <v>-8.134819028686559</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.0108048401075036</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>-2.47262273657346</v>
+        <v>-2.94893578648263</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3553,46 +3553,46 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.999999885996558</v>
+        <v>0.783331277234563</v>
       </c>
       <c r="G35" t="n">
-        <v>0.025974025974026</v>
+        <v>0.467455621301775</v>
       </c>
       <c r="H35" t="n">
-        <v>0.896103896103896</v>
+        <v>0.550295857988166</v>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J35" t="n">
-        <v>0.702</v>
+        <v>0.015</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.0165103782287823</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.0230189481480584</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.0103889656948346</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>-2.35190573059577</v>
+        <v>0</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3632,7 +3632,7 @@
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3644,46 +3644,46 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D36" t="b">
         <v>1</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.999997096374817</v>
+        <v>0.463746540648661</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.148387096774194</v>
       </c>
       <c r="H36" t="n">
-        <v>0.832618025751073</v>
+        <v>0.148387096774194</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
-        <v>3.44</v>
+        <v>0.006</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.11512633268256</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.199870844356842</v>
+        <v>-0.0001435073626372</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.0649823502939859</v>
+        <v>9.97678229991806e-05</v>
       </c>
       <c r="N36" t="n">
-        <v>-3.34669571751627</v>
+        <v>0</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3723,7 +3723,7 @@
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3735,11 +3735,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D37" t="b">
         <v>1</v>
@@ -3750,31 +3750,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.908455117139489</v>
+        <v>0.903984512928377</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0129032258064516</v>
+        <v>0.10126582278481</v>
       </c>
       <c r="H37" t="n">
-        <v>0.509677419354839</v>
+        <v>0.822784810126582</v>
       </c>
       <c r="I37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>1.185</v>
+        <v>0.62535</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0067152895181741</v>
+        <v>-0.0047269785963165</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0014312262150708</v>
+        <v>-0.012575697588483</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0161035969294495</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0.566691098580096</v>
+        <v>-0.755893275176553</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3814,7 +3814,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3826,11 +3826,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D38" t="b">
         <v>1</v>
@@ -3841,31 +3841,31 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.0042948724820309</v>
+        <v>0.899590206436329</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0226628895184136</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.155807365439093</v>
+        <v>0.662857142857143</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0.025</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0001669205585127</v>
+        <v>0.0118174464907914</v>
       </c>
       <c r="L38" t="n">
-        <v>5.8856368770591e-05</v>
+        <v>-0.0042844871537656</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0002838395879281</v>
+        <v>0.0243444236098993</v>
       </c>
       <c r="N38" t="n">
-        <v>0.667682234050996</v>
+        <v>0.143939664930468</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3903,11 +3903,7 @@
           <t>Mana_5a</t>
         </is>
       </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3917,46 +3913,46 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.999998740176039</v>
+        <v>0.960539388846971</v>
       </c>
       <c r="G39" t="n">
-        <v>0.33974358974359</v>
+        <v>0.0340909090909091</v>
       </c>
       <c r="H39" t="n">
-        <v>0.583333333333333</v>
+        <v>0.920454545454545</v>
       </c>
       <c r="I39" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="J39" t="n">
-        <v>0.0181070982572068</v>
+        <v>0.6485</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.000388267789542</v>
+        <v>-0.0048204854705139</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.0005336390151222</v>
+        <v>-0.0120224494413239</v>
       </c>
       <c r="M39" t="n">
-        <v>-0.0002119971591255</v>
+        <v>-2.49060304854836e-05</v>
       </c>
       <c r="N39" t="n">
-        <v>-2.14428498717333</v>
+        <v>-0.743328522824048</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3965,7 +3961,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q39" t="n">
@@ -3996,7 +3992,7 @@
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -4008,11 +4004,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D40" t="b">
         <v>1</v>
@@ -4023,31 +4019,31 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.999999994922494</v>
+        <v>0.999077027740738</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0507462686567164</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.6</v>
+        <v>0.7215909090909089</v>
       </c>
       <c r="I40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.75</v>
+        <v>0.91</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.0102005539730835</v>
+        <v>-0.0118318091062864</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.0133850203229806</v>
+        <v>-0.0200686813186813</v>
       </c>
       <c r="M40" t="n">
-        <v>-0.0072904501314529</v>
+        <v>-0.0058077276690634</v>
       </c>
       <c r="N40" t="n">
-        <v>-1.3600738630778</v>
+        <v>-1.30019880288862</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4087,7 +4083,7 @@
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -4099,11 +4095,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D41" t="b">
         <v>1</v>
@@ -4114,31 +4110,31 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.99999999606639</v>
+        <v>0.0369349410919466</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0188087774294671</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.874608150470219</v>
+        <v>0.471590909090909</v>
       </c>
       <c r="I41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.736</v>
+        <v>0.044</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.0103154881386861</v>
+        <v>0.0007137984825639001</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.013094123158369</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>-0.0074997988687953</v>
+        <v>0.0013336376083979</v>
       </c>
       <c r="N41" t="n">
-        <v>-1.40156088840844</v>
+        <v>1.62226927855437</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4147,7 +4143,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q41" t="n">
@@ -4194,7 +4190,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D42" t="b">
         <v>1</v>
@@ -4205,31 +4201,31 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.999999717424885</v>
+        <v>0.993902009498758</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.704545454545455</v>
+        <v>0.892045454545455</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>4.59</v>
+        <v>3.18</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.0791847329986308</v>
+        <v>-0.07123194912457879</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.119843565355319</v>
+        <v>-0.146753408848664</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.0543057078480153</v>
+        <v>-0.0190773227376385</v>
       </c>
       <c r="N42" t="n">
-        <v>-1.72515758166952</v>
+        <v>-2.23999840014399</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4281,14 +4277,14 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -4296,31 +4292,31 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.889664319040077</v>
+        <v>0.728439214399688</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.018957345971564</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0.559241706161137</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J43" t="n">
-        <v>0.437</v>
+        <v>1.2</v>
       </c>
       <c r="K43" t="n">
-        <v>0.0176126412655686</v>
+        <v>0.0039319174881421</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.0783362942536877</v>
+        <v>-0.0090751219706254</v>
       </c>
       <c r="M43" t="n">
-        <v>0.085914045241621</v>
+        <v>0.0199535645998361</v>
       </c>
       <c r="N43" t="n">
-        <v>4.03035269234979</v>
+        <v>0.327659790678513</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4358,7 +4354,11 @@
           <t>Mana_5a</t>
         </is>
       </c>
-      <c r="W43" t="inlineStr"/>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4368,14 +4368,14 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -4383,31 +4383,31 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.768783636774762</v>
+        <v>0.0342818303011911</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.0128755364806867</v>
       </c>
       <c r="H44" t="n">
+        <v>0.227467811158798</v>
+      </c>
+      <c r="I44" t="n">
         <v>1</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
       <c r="J44" t="n">
-        <v>100</v>
+        <v>0.026</v>
       </c>
       <c r="K44" t="n">
-        <v>3.03452473455598</v>
+        <v>0.0002496582365003</v>
       </c>
       <c r="L44" t="n">
-        <v>-6.34745600724281</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>4.69776225288867</v>
+        <v>0.0004969387755102</v>
       </c>
       <c r="N44" t="n">
-        <v>3.03452473455598</v>
+        <v>0.960223986539775</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q44" t="n">
@@ -4445,7 +4445,11 @@
           <t>Mana_5a</t>
         </is>
       </c>
-      <c r="W44" t="inlineStr"/>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4455,11 +4459,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
@@ -4470,31 +4474,31 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.95679463351315</v>
+        <v>0.999988471582742</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.0042918454935622</v>
       </c>
       <c r="H45" t="n">
+        <v>0.639484978540773</v>
+      </c>
+      <c r="I45" t="n">
         <v>1</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
       <c r="J45" t="n">
-        <v>4.668</v>
+        <v>168</v>
       </c>
       <c r="K45" t="n">
-        <v>0.510969987153194</v>
+        <v>-8.60255185248875</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.0001370277145293</v>
+        <v>-12.9427082175382</v>
       </c>
       <c r="M45" t="n">
-        <v>0.918896893665718</v>
+        <v>-5.0587529528082</v>
       </c>
       <c r="N45" t="n">
-        <v>10.9462293734617</v>
+        <v>-5.12056657886235</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4503,7 +4507,7 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q45" t="n">
@@ -4532,7 +4536,11 @@
           <t>Mana_5a</t>
         </is>
       </c>
-      <c r="W45" t="inlineStr"/>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4542,46 +4550,46 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D46" t="b">
         <v>0</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.429013828493761</v>
+        <v>0.957130719274477</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.424107142857143</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0.580357142857143</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J46" t="n">
-        <v>0.4215</v>
+        <v>0.0156999102349645</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.0087704407294832</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>-0.0269073052936267</v>
+        <v>-0.0002803042186426</v>
       </c>
       <c r="M46" t="n">
-        <v>0.0226592418233693</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>-2.08076885634242</v>
+        <v>0</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4590,7 +4598,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q46" t="n">
@@ -4619,7 +4627,11 @@
           <t>Mana_5a</t>
         </is>
       </c>
-      <c r="W46" t="inlineStr"/>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4629,46 +4641,46 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.5</v>
+        <v>0.999999883411095</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>0.0744186046511628</v>
       </c>
       <c r="H47" t="n">
-        <v>0.9</v>
+        <v>0.772093023255814</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>98.89</v>
+        <v>0.71</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>-0.0175556214296715</v>
       </c>
       <c r="L47" t="n">
-        <v>-2.66326806322145</v>
+        <v>-0.0231289866252348</v>
       </c>
       <c r="M47" t="n">
-        <v>1.6290531033573</v>
+        <v>-0.0108048401075036</v>
       </c>
       <c r="N47" t="n">
-        <v>0</v>
+        <v>-2.47262273657346</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4677,7 +4689,7 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q47" t="n">
@@ -4706,7 +4718,11 @@
           <t>Mana_5a</t>
         </is>
       </c>
-      <c r="W47" t="inlineStr"/>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4716,14 +4732,14 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -4731,31 +4747,31 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.429013828493761</v>
+        <v>0.999999885996558</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>0.025974025974026</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0.896103896103896</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J48" t="n">
-        <v>4.951</v>
+        <v>0.702</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.0334148486980999</v>
+        <v>-0.0165103782287823</v>
       </c>
       <c r="L48" t="n">
-        <v>-0.172451026242749</v>
+        <v>-0.0230189481480584</v>
       </c>
       <c r="M48" t="n">
-        <v>0.257655913981243</v>
+        <v>-0.0103889656948346</v>
       </c>
       <c r="N48" t="n">
-        <v>-0.674911102769135</v>
+        <v>-2.35190573059577</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4764,7 +4780,7 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q48" t="n">
@@ -4793,7 +4809,11 @@
           <t>Mana_5a</t>
         </is>
       </c>
-      <c r="W48" t="inlineStr"/>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4803,14 +4823,14 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C49" t="n">
         <v>20</v>
       </c>
       <c r="D49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -4818,31 +4838,31 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.720977124401568</v>
+        <v>0.999997096374817</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.8</v>
+        <v>0.832618025751073</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>98.39</v>
+        <v>3.44</v>
       </c>
       <c r="K49" t="n">
-        <v>0.199083826035343</v>
+        <v>-0.11512633268256</v>
       </c>
       <c r="L49" t="n">
-        <v>-0.401285592148496</v>
+        <v>-0.199870844356842</v>
       </c>
       <c r="M49" t="n">
-        <v>0.741424083648566</v>
+        <v>-0.0649823502939859</v>
       </c>
       <c r="N49" t="n">
-        <v>0.202341524581098</v>
+        <v>-3.34669571751627</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4851,7 +4871,7 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q49" t="n">
@@ -4880,7 +4900,1253 @@
           <t>Mana_5a</t>
         </is>
       </c>
-      <c r="W49" t="inlineStr"/>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Manawatu at Hopelands</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Visual Clarity</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>30</v>
+      </c>
+      <c r="D50" t="b">
+        <v>1</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>0.908455117139489</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.0129032258064516</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.509677419354839</v>
+      </c>
+      <c r="I50" t="n">
+        <v>4</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1.185</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.0067152895181741</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-0.0014312262150708</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.0161035969294495</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.566691098580096</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Very likely improving</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>1851498</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5528097</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Mana_5a</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Manawatu at Hopelands</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>30</v>
+      </c>
+      <c r="D51" t="b">
+        <v>1</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>0.0042948724820309</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.0226628895184136</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.155807365439093</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.0001669205585127</v>
+      </c>
+      <c r="L51" t="n">
+        <v>5.8856368770591e-05</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.0002838395879281</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.667682234050996</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>1851498</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5528097</v>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Mana_5a</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Manawatu at Hopelands</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>30</v>
+      </c>
+      <c r="D52" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>0.999998740176039</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.33974358974359</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="I52" t="n">
+        <v>18</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.0181070982572068</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-0.000388267789542</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-0.0005336390151222</v>
+      </c>
+      <c r="M52" t="n">
+        <v>-0.0002119971591255</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-2.14428498717333</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>1851498</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5528097</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>Mana_5a</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Manawatu at Hopelands</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>30</v>
+      </c>
+      <c r="D53" t="b">
+        <v>1</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>0.999999994922494</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.0507462686567164</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I53" t="n">
+        <v>2</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-0.0102005539730835</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-0.0133850203229806</v>
+      </c>
+      <c r="M53" t="n">
+        <v>-0.0072904501314529</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-1.3600738630778</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>1851498</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5528097</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>Mana_5a</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Manawatu at Hopelands</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>30</v>
+      </c>
+      <c r="D54" t="b">
+        <v>1</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>0.99999999606639</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.0188087774294671</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.874608150470219</v>
+      </c>
+      <c r="I54" t="n">
+        <v>2</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.736</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-0.0103154881386861</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-0.013094123158369</v>
+      </c>
+      <c r="M54" t="n">
+        <v>-0.0074997988687953</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-1.40156088840844</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>1851498</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5528097</v>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>Mana_5a</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Manawatu at Hopelands</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>30</v>
+      </c>
+      <c r="D55" t="b">
+        <v>1</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>0.999999717424885</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.704545454545455</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-0.0791847329986308</v>
+      </c>
+      <c r="L55" t="n">
+        <v>-0.119843565355319</v>
+      </c>
+      <c r="M55" t="n">
+        <v>-0.0543057078480153</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-1.72515758166952</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>1851498</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5528097</v>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>Mana_5a</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Manawatu at Hopelands</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>5</v>
+      </c>
+      <c r="D56" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>0.889664319040077</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.437</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.0176126412655686</v>
+      </c>
+      <c r="L56" t="n">
+        <v>-0.0783362942536877</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.085914045241621</v>
+      </c>
+      <c r="N56" t="n">
+        <v>4.03035269234979</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>1851498</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5528097</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>Mana_5a</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Manawatu at Hopelands</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>5</v>
+      </c>
+      <c r="D57" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>0.768783636774762</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>100</v>
+      </c>
+      <c r="K57" t="n">
+        <v>3.03452473455598</v>
+      </c>
+      <c r="L57" t="n">
+        <v>-6.34745600724281</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4.69776225288867</v>
+      </c>
+      <c r="N57" t="n">
+        <v>3.03452473455598</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>1851498</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5528097</v>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>Mana_5a</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Manawatu at Hopelands</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>5</v>
+      </c>
+      <c r="D58" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>0.95679463351315</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>4.668</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.510969987153194</v>
+      </c>
+      <c r="L58" t="n">
+        <v>-0.0001370277145293</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.918896893665718</v>
+      </c>
+      <c r="N58" t="n">
+        <v>10.9462293734617</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>1851498</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5528097</v>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>Mana_5a</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Manawatu at Hopelands</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>10</v>
+      </c>
+      <c r="D59" t="b">
+        <v>0</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>0.429013828493761</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.4215</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-0.0087704407294832</v>
+      </c>
+      <c r="L59" t="n">
+        <v>-0.0269073052936267</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.0226592418233693</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-2.08076885634242</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>1851498</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5528097</v>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>Mana_5a</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Manawatu at Hopelands</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>10</v>
+      </c>
+      <c r="D60" t="b">
+        <v>0</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>98.89</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>-2.66326806322145</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1.6290531033573</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
+        <v>1851498</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5528097</v>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>Mana_5a</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Manawatu at Hopelands</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>10</v>
+      </c>
+      <c r="D61" t="b">
+        <v>0</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>0.429013828493761</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>4.951</v>
+      </c>
+      <c r="K61" t="n">
+        <v>-0.0334148486980999</v>
+      </c>
+      <c r="L61" t="n">
+        <v>-0.172451026242749</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.257655913981243</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-0.674911102769135</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
+        <v>1851498</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5528097</v>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>Mana_5a</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Manawatu at Hopelands</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>15</v>
+      </c>
+      <c r="D62" t="b">
+        <v>0</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>0.654750942367696</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>97.78</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.197646103896104</v>
+      </c>
+      <c r="L62" t="n">
+        <v>-0.723212633938873</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1.0090221195017</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.202133466860405</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q62" t="n">
+        <v>1851498</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5528097</v>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>Mana_5a</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Manawatu at Hopelands</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>20</v>
+      </c>
+      <c r="D63" t="b">
+        <v>0</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>0.720977124401568</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>98.39</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.199083826035343</v>
+      </c>
+      <c r="L63" t="n">
+        <v>-0.401285592148496</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.741424083648566</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.202341524581098</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q63" t="n">
+        <v>1851498</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5528097</v>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>Mana_5a</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/ManawatuatHopelands_65cebb97ae.xlsx
+++ b/trend_results/Rivers/ManawatuatHopelands_65cebb97ae.xlsx
@@ -569,35 +569,35 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.236723488327413</v>
+        <v>0.964340895198774</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.0256410256410256</v>
       </c>
       <c r="H2" t="n">
-        <v>0.868421052631579</v>
+        <v>0.846153846153846</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>40.75</v>
+        <v>40.5</v>
       </c>
       <c r="K2" t="n">
-        <v>4.31397637795276</v>
+        <v>-6.47014285714286</v>
       </c>
       <c r="L2" t="n">
-        <v>-4.29114563966383</v>
+        <v>-15.6172424062669</v>
       </c>
       <c r="M2" t="n">
-        <v>19.6379146090294</v>
+        <v>-0.132394238715584</v>
       </c>
       <c r="N2" t="n">
-        <v>10.5864450992706</v>
+        <v>-15.9756613756614</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -656,7 +656,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.997808296443355</v>
+        <v>0.055418247031418</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.821428571428571</v>
+        <v>0.865384615384615</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="K3" t="n">
-        <v>0.276704545454545</v>
+        <v>-0.121784709983413</v>
       </c>
       <c r="L3" t="n">
-        <v>0.124234693877551</v>
+        <v>-0.305602183358232</v>
       </c>
       <c r="M3" t="n">
-        <v>0.452558630372157</v>
+        <v>-0.0158767064707294</v>
       </c>
       <c r="N3" t="n">
-        <v>23.4495377503852</v>
+        <v>-10.1487258319511</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -747,7 +747,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.706370464057808</v>
+        <v>0.055707618213949</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -767,19 +767,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.14</v>
+        <v>10.94</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0597879464285721</v>
+        <v>-0.117434154555122</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.106421180553291</v>
+        <v>-0.208035255813176</v>
       </c>
       <c r="M4" t="n">
-        <v>0.234602055335907</v>
+        <v>-0.0041826259114763</v>
       </c>
       <c r="N4" t="n">
-        <v>0.53669610797641</v>
+        <v>-1.0734383414545</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -842,17 +842,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.0275660375817673</v>
+        <v>0.605912282990371</v>
       </c>
       <c r="G5" t="n">
         <v>0.0169491525423729</v>
       </c>
       <c r="H5" t="n">
-        <v>0.576271186440678</v>
+        <v>0.542372881355932</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -861,16 +861,16 @@
         <v>0.029</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0025927240461402</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0003423874359171</v>
+        <v>-0.0015794599444711</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0044406763603869</v>
+        <v>0.001304483765952</v>
       </c>
       <c r="N5" t="n">
-        <v>8.94042774531102</v>
+        <v>0</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -929,7 +929,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -937,13 +937,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.847858681211766</v>
+        <v>0.281341927597306</v>
       </c>
       <c r="G6" t="n">
         <v>0.0169491525423729</v>
       </c>
       <c r="H6" t="n">
-        <v>0.711864406779661</v>
+        <v>0.745762711864407</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -952,16 +952,16 @@
         <v>120</v>
       </c>
       <c r="K6" t="n">
-        <v>-11.9950738916256</v>
+        <v>8.97651992316626</v>
       </c>
       <c r="L6" t="n">
-        <v>-38.182911097672</v>
+        <v>-12.504886832871</v>
       </c>
       <c r="M6" t="n">
-        <v>7.92382855176234</v>
+        <v>29.052506187958</v>
       </c>
       <c r="N6" t="n">
-        <v>-9.99589490968801</v>
+        <v>7.48043326930522</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1028,31 +1028,31 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.420163444712225</v>
+        <v>0.971065425268702</v>
       </c>
       <c r="G7" t="n">
-        <v>0.384615384615385</v>
+        <v>0.385964912280702</v>
       </c>
       <c r="H7" t="n">
-        <v>0.692307692307692</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="I7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01494936298344</v>
+        <v>0.0133674018423732</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>-0.0014745586702073</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.0011472722026892</v>
+        <v>-0.0033431565513817</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0019924672159768</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>-11.0310042863614</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1119,7 +1119,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.164022020231698</v>
+        <v>0.129547614924543</v>
       </c>
       <c r="G8" t="n">
         <v>0.152542372881356</v>
@@ -1134,16 +1134,16 @@
         <v>0.005</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0001241502379333</v>
+        <v>0.0002508585164835</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0005015522809787</v>
+        <v>0.000664695177434</v>
       </c>
       <c r="N8" t="n">
-        <v>2.48300475866757</v>
+        <v>5.01717032967033</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1206,35 +1206,35 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.471083053005379</v>
+        <v>0.0475987980218213</v>
       </c>
       <c r="G9" t="n">
         <v>0.101694915254237</v>
       </c>
       <c r="H9" t="n">
-        <v>0.864406779661017</v>
+        <v>0.88135593220339</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.625</v>
+        <v>0.635</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0005115546218487</v>
+        <v>0.0461263052784594</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0386813903795027</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0444099309942822</v>
+        <v>0.1030412024578</v>
       </c>
       <c r="N9" t="n">
-        <v>0.08184873949579841</v>
+        <v>7.26398508322195</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1301,31 +1301,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.661290874747372</v>
+        <v>0.003789637286839</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.827586206896552</v>
+        <v>0.862068965517241</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>8.285</v>
+        <v>8.215</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0188597246127368</v>
+        <v>-0.144323708206687</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0711638739788848</v>
+        <v>-0.227156086681859</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0991801084392185</v>
+        <v>-0.0569644179824801</v>
       </c>
       <c r="N10" t="n">
-        <v>0.227636989894228</v>
+        <v>-1.75683150586351</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1384,35 +1384,35 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.359108064766993</v>
+        <v>0.0256741662816303</v>
       </c>
       <c r="G11" t="n">
         <v>0.0508474576271186</v>
       </c>
       <c r="H11" t="n">
-        <v>0.949152542372881</v>
+        <v>0.966101694915254</v>
       </c>
       <c r="I11" t="n">
         <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>0.635</v>
+        <v>0.659</v>
       </c>
       <c r="K11" t="n">
-        <v>0.009415982405333499</v>
+        <v>0.0494522600041468</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.0419283861905291</v>
+        <v>0.008270609007303999</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0468612103939831</v>
+        <v>0.113256984900621</v>
       </c>
       <c r="N11" t="n">
-        <v>1.48283187485567</v>
+        <v>7.50413657119071</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1464,46 +1464,46 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.970582608253862</v>
+        <v>0.0023320791932577</v>
       </c>
       <c r="G12" t="n">
-        <v>0.186440677966102</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.423728813559322</v>
+        <v>0.813559322033898</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>0.85</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.860086342229199</v>
+        <v>0.0993967706821481</v>
       </c>
       <c r="L12" t="n">
-        <v>-2.00686813186813</v>
+        <v>0.0484184004860431</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>0.142913034579563</v>
       </c>
       <c r="N12" t="n">
-        <v>-21.50215855573</v>
+        <v>11.6937377273115</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1555,46 +1555,46 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.471083053005379</v>
+        <v>0.447929471481199</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.864406779661017</v>
+        <v>0.6949152542372879</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.047</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0024612533692722</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0267734837142053</v>
+        <v>-0.0023505007571941</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0536760173210732</v>
+        <v>0.0037487201975384</v>
       </c>
       <c r="N13" t="n">
-        <v>0.303858440650894</v>
+        <v>0</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1646,14 +1646,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>5</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.404325571144614</v>
+        <v>0.0355984446376258</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.6949152542372879</v>
+        <v>0.966101694915254</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.048</v>
+        <v>3.11</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0004141156462585</v>
+        <v>0.384473684210526</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.0033548831790008</v>
+        <v>0.0480152592635152</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0047231658374533</v>
+        <v>1.07526428740468</v>
       </c>
       <c r="N14" t="n">
-        <v>0.862740929705216</v>
+        <v>12.3624978845828</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1737,46 +1737,46 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>0.84924375550767</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.0117647058823529</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.741176470588235</v>
+      </c>
+      <c r="I15" t="n">
         <v>1</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>0.693284313522417</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.949152542372881</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
       <c r="J15" t="n">
-        <v>2.18</v>
+        <v>43</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.09908911401098899</v>
+        <v>-0.760048983614982</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.479518189923054</v>
+        <v>-3.98769781968823</v>
       </c>
       <c r="M15" t="n">
-        <v>0.190120113052436</v>
+        <v>0.511938099187028</v>
       </c>
       <c r="N15" t="n">
-        <v>-4.54537220233895</v>
+        <v>-1.76755577584879</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1843,31 +1843,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.643201350413993</v>
+        <v>0.587166004049292</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.741573033707865</v>
+        <v>0.75</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>49.5</v>
+        <v>1.075</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.49184718969555</v>
+        <v>0.0100343406593407</v>
       </c>
       <c r="L16" t="n">
-        <v>-4.21010162263505</v>
+        <v>-0.0237537437021175</v>
       </c>
       <c r="M16" t="n">
-        <v>1.24791882988933</v>
+        <v>0.0569647652101408</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.993630686253637</v>
+        <v>0.933427038078202</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1934,31 +1934,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.845568670143057</v>
+        <v>0.30986462292817</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.740740740740741</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1.2</v>
+        <v>11.06</v>
       </c>
       <c r="K17" t="n">
-        <v>0.035738747553816</v>
+        <v>-0.0171077283372364</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.0150156800800981</v>
+        <v>-0.0919118515769702</v>
       </c>
       <c r="M17" t="n">
-        <v>0.06642367318810249</v>
+        <v>0.050171703296704</v>
       </c>
       <c r="N17" t="n">
-        <v>2.978228962818</v>
+        <v>-0.154681088040112</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2025,31 +2025,31 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.5611526494197741</v>
+        <v>0.0056038923312269</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.008403361344537799</v>
       </c>
       <c r="H18" t="n">
-        <v>0.857142857142857</v>
+        <v>0.361344537815126</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>11.12</v>
+        <v>0.027</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0067545076282938</v>
+        <v>0.000831531018782</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.0590368806860622</v>
+        <v>0.0003122765677422</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0689393647739254</v>
+        <v>0.00143026560637</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0607419750745854</v>
+        <v>3.07974451400747</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2116,31 +2116,31 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.0009355504176783999</v>
+        <v>0.58100198583772</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0168067226890756</v>
+        <v>0.008403361344537799</v>
       </c>
       <c r="H19" t="n">
-        <v>0.361344537815126</v>
+        <v>0.697478991596639</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.027</v>
+        <v>130</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0011034743202416</v>
+        <v>-0.555091185410334</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0005379234167893</v>
+        <v>-7.58310244941172</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0017588282504012</v>
+        <v>6.07369864802714</v>
       </c>
       <c r="N19" t="n">
-        <v>4.08694192682108</v>
+        <v>-0.426993219546411</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2180,7 +2180,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2203,35 +2203,35 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.583696626974732</v>
+        <v>0.0789654966618106</v>
       </c>
       <c r="G20" t="n">
-        <v>0.008403361344537799</v>
+        <v>0.540540540540541</v>
       </c>
       <c r="H20" t="n">
-        <v>0.680672268907563</v>
+        <v>0.504504504504504</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J20" t="n">
-        <v>120</v>
+        <v>0.0115816826854943</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.650200267022697</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>-7.21108890743329</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>5.58492457599344</v>
+        <v>0.0002559308426292</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.541833555852247</v>
+        <v>0</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2283,14 +2283,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -2298,28 +2298,28 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.0368872717690568</v>
+        <v>0.521301548097121</v>
       </c>
       <c r="G21" t="n">
-        <v>0.535714285714286</v>
+        <v>0.109243697478992</v>
       </c>
       <c r="H21" t="n">
-        <v>0.5</v>
+        <v>0.168067226890756</v>
       </c>
       <c r="I21" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0120091665317085</v>
+        <v>0.006</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>-0.0001667047010497</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0007995674866799</v>
+        <v>0.0001663766535229</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2374,7 +2374,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -2385,35 +2385,35 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.425587393570248</v>
+        <v>0.206905491381009</v>
       </c>
       <c r="G22" t="n">
-        <v>0.109243697478992</v>
+        <v>0.100840336134454</v>
       </c>
       <c r="H22" t="n">
-        <v>0.168067226890756</v>
+        <v>0.823529411764706</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0.006</v>
+        <v>0.6286</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>0.0034309197651663</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>-0.0028594745688533</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0001999178981937</v>
+        <v>0.0152827035410691</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>0.545803335215772</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2465,7 +2465,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2476,35 +2476,35 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.143382020997983</v>
+        <v>0.025445239747839</v>
       </c>
       <c r="G23" t="n">
-        <v>0.134453781512605</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.8067226890756301</v>
+        <v>0.726495726495726</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.6229</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0016227785372522</v>
+        <v>-0.0378394220283536</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>-0.0551994948818077</v>
       </c>
       <c r="M23" t="n">
-        <v>0.011462588716471</v>
+        <v>-0.0068780526739656</v>
       </c>
       <c r="N23" t="n">
-        <v>0.26051991286759</v>
+        <v>-0.470054932029237</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2542,11 +2542,7 @@
           <t>Mana_5a</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2556,7 +2552,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2571,31 +2567,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.184214350564277</v>
+        <v>0.147502165038468</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.0504201680672269</v>
       </c>
       <c r="H24" t="n">
-        <v>0.6949152542372879</v>
+        <v>0.915966386554622</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
-        <v>8.244999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.0114199866552583</v>
+        <v>0.0063072998430141</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.0420636197923978</v>
+        <v>-0.0027010721782663</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0115327104219227</v>
+        <v>0.0181215245055858</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.138508024927329</v>
+        <v>0.970353822002173</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2604,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2633,7 +2629,11 @@
           <t>Mana_5a</t>
         </is>
       </c>
-      <c r="W24" t="inlineStr"/>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.14700474152745</v>
+        <v>0.33786039001518</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0504201680672269</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.890756302521008</v>
+        <v>0.764705882352941</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.637</v>
+        <v>0.9</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0046528662420382</v>
+        <v>0.0039830970556161</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0019958494769558</v>
+        <v>-0.0079958429856813</v>
       </c>
       <c r="M25" t="n">
-        <v>0.013582678386704</v>
+        <v>0.0195987672808296</v>
       </c>
       <c r="N25" t="n">
-        <v>0.730434260916518</v>
+        <v>0.442566339512904</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2734,46 +2734,46 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>10</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.749493307960083</v>
+        <v>0.0307044623982759</v>
       </c>
       <c r="G26" t="n">
-        <v>0.168067226890756</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.310924369747899</v>
+        <v>0.554621848739496</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>0.044</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>0.0011384415584415</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.124895602059645</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>0.0022643792110319</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>2.58736717827627</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2825,7 +2825,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -2840,31 +2840,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.717413756977603</v>
+        <v>0.160567080492536</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.8151260504201679</v>
+        <v>0.9411764705882349</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.834</v>
+        <v>3.19</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.0053175614194722</v>
+        <v>0.0650148334094021</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.0125794267230905</v>
+        <v>-0.0367925824175824</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0073531004859293</v>
+        <v>0.215221797379297</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.6375972925026669</v>
+        <v>2.03808255201887</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2916,46 +2916,46 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.0558986899630687</v>
+        <v>0.460475635284692</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.0072992700729927</v>
       </c>
       <c r="H28" t="n">
-        <v>0.521008403361345</v>
+        <v>0.6934306569343071</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>0.044</v>
+        <v>37.5</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0009662698412698</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>-1.22878464971347</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0020702551567351</v>
+        <v>0.77852987245294</v>
       </c>
       <c r="N28" t="n">
-        <v>2.19606782106782</v>
+        <v>0</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -3007,11 +3007,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
@@ -3022,31 +3022,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.935025564002869</v>
+        <v>0.060201022479677</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.01875</v>
       </c>
       <c r="H29" t="n">
-        <v>0.899159663865546</v>
+        <v>0.65</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J29" t="n">
-        <v>2.29</v>
+        <v>1.15</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.0616807393884071</v>
+        <v>-0.0200686813186813</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.161703840346678</v>
+        <v>-0.0499659845504949</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0048684771803279</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>-2.69348206936276</v>
+        <v>-1.74510272336359</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3113,31 +3113,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.0970524713133042</v>
+        <v>0.360765345344411</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.692307692307692</v>
+        <v>0.805714285714286</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41</v>
+        <v>10.95</v>
       </c>
       <c r="K30" t="n">
-        <v>0.485484075793552</v>
+        <v>-0.0065989159891603</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.18072229112567</v>
+        <v>-0.0421712954940466</v>
       </c>
       <c r="M30" t="n">
-        <v>2.07942951345659</v>
+        <v>0.0365716939936485</v>
       </c>
       <c r="N30" t="n">
-        <v>1.18410750193549</v>
+        <v>-0.0602640729603684</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3177,7 +3177,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3189,46 +3189,46 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>15</v>
       </c>
       <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.001262613476559</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0112994350282486</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.254237288135593</v>
+      </c>
+      <c r="I31" t="n">
         <v>1</v>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>0.23555235911491</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.0189873417721519</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.626582278481013</v>
-      </c>
-      <c r="I31" t="n">
-        <v>3</v>
-      </c>
       <c r="J31" t="n">
-        <v>1.2</v>
+        <v>0.026</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.009976818774364101</v>
+        <v>0.0005997536945812</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.0400378232460899</v>
+        <v>0.0002802285009318</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0166549470061878</v>
+        <v>0.0009317602040816</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.831401564530348</v>
+        <v>2.30674497915877</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3280,46 +3280,46 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>15</v>
       </c>
       <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.7287467458833961</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.0056497175141242</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.68361581920904</v>
+      </c>
+      <c r="I32" t="n">
         <v>1</v>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>0.422265455324721</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0.797687861271676</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
       <c r="J32" t="n">
-        <v>11.12</v>
+        <v>130</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.0039983579638751</v>
+        <v>-1.32713643420882</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.041864145711293</v>
+        <v>-5.31506692170418</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0442738337659127</v>
+        <v>2.1852211693398</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.0359564565096683</v>
+        <v>-1.02087418016063</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3371,14 +3371,14 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -3386,31 +3386,31 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.0003156265201638</v>
+        <v>0.9926161271098199</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0113636363636364</v>
+        <v>0.449704142011834</v>
       </c>
       <c r="H33" t="n">
-        <v>0.244318181818182</v>
+        <v>0.568047337278107</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J33" t="n">
-        <v>0.026</v>
+        <v>0.0148987259668801</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0007072437973772001</v>
+        <v>-0.0001640792446526</v>
       </c>
       <c r="L33" t="n">
-        <v>0.000332347588717</v>
+        <v>-0.0007702432931203001</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0009970427661509999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>2.72016845145093</v>
+        <v>-1.10129715129591</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3462,46 +3462,46 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>15</v>
       </c>
       <c r="D34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.956679234003777</v>
+        <v>0.47406996143512</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0056818181818181</v>
+        <v>0.137724550898204</v>
       </c>
       <c r="H34" t="n">
-        <v>0.670454545454545</v>
+        <v>0.137724550898204</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>135.5</v>
+        <v>0.006</v>
       </c>
       <c r="K34" t="n">
-        <v>-3.99580799068396</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>-8.134819028686559</v>
+        <v>-0.0001361180124223</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>9.9756105275879e-05</v>
       </c>
       <c r="N34" t="n">
-        <v>-2.94893578648263</v>
+        <v>0</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3553,46 +3553,46 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.783331277234563</v>
+        <v>0.684727647695633</v>
       </c>
       <c r="G35" t="n">
-        <v>0.467455621301775</v>
+        <v>0.0958083832335329</v>
       </c>
       <c r="H35" t="n">
-        <v>0.550295857988166</v>
+        <v>0.820359281437126</v>
       </c>
       <c r="I35" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>0.015</v>
+        <v>0.625</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>-0.0004209036992952</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>-0.0077290221070503</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>0.0034498773936769</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>-0.067344591887242</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3655,35 +3655,35 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.463746540648661</v>
+        <v>0.105746478316142</v>
       </c>
       <c r="G36" t="n">
-        <v>0.148387096774194</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.148387096774194</v>
+        <v>0.662857142857143</v>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.006</v>
+        <v>8.19</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>-0.0115795479824341</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.0001435073626372</v>
+        <v>-0.0313891304772325</v>
       </c>
       <c r="M36" t="n">
-        <v>9.97678229991806e-05</v>
+        <v>0.0037280406185458</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>-0.141386422251943</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3721,11 +3721,7 @@
           <t>Mana_5a</t>
         </is>
       </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3735,7 +3731,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3746,35 +3742,35 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.903984512928377</v>
+        <v>0.850796046826591</v>
       </c>
       <c r="G37" t="n">
-        <v>0.10126582278481</v>
+        <v>0.0338983050847458</v>
       </c>
       <c r="H37" t="n">
-        <v>0.822784810126582</v>
+        <v>0.9209039548022599</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J37" t="n">
-        <v>0.62535</v>
+        <v>0.65</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.0047269785963165</v>
+        <v>-0.0038101353736008</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.012575697588483</v>
+        <v>-0.0115210697053941</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>0.0019408012215509</v>
       </c>
       <c r="N37" t="n">
-        <v>-0.755893275176553</v>
+        <v>-0.586174672861674</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3783,7 +3779,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3814,7 +3810,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3826,7 +3822,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -3841,31 +3837,31 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.899590206436329</v>
+        <v>0.976746638372933</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.662857142857143</v>
+        <v>0.711864406779661</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>8.210000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0118174464907914</v>
+        <v>-0.0088671718481155</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.0042844871537656</v>
+        <v>-0.0158163472935624</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0243444236098993</v>
+        <v>-0.0021998191824769</v>
       </c>
       <c r="N38" t="n">
-        <v>0.143939664930468</v>
+        <v>-0.963823026969085</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3874,7 +3870,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3903,7 +3899,11 @@
           <t>Mana_5a</t>
         </is>
       </c>
-      <c r="W38" t="inlineStr"/>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -3928,31 +3928,31 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.960539388846971</v>
+        <v>0.126657694602638</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0340909090909091</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.920454545454545</v>
+        <v>0.474576271186441</v>
       </c>
       <c r="I39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.6485</v>
+        <v>0.044</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.0048204854705139</v>
+        <v>0.0004968261420615</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.0120224494413239</v>
+        <v>-0.0002075092315404</v>
       </c>
       <c r="M39" t="n">
-        <v>-2.49060304854836e-05</v>
+        <v>0.0012254363910721</v>
       </c>
       <c r="N39" t="n">
-        <v>-0.743328522824048</v>
+        <v>1.12915032286713</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q39" t="n">
@@ -4004,7 +4004,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -4019,31 +4019,31 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.999077027740738</v>
+        <v>0.924113075072421</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.7215909090909089</v>
+        <v>0.892655367231638</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.91</v>
+        <v>3.33</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.0118318091062864</v>
+        <v>-0.0367925824175824</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.0200686813186813</v>
+        <v>-0.0961461667431829</v>
       </c>
       <c r="M40" t="n">
-        <v>-0.0058077276690634</v>
+        <v>0.0087466391095542</v>
       </c>
       <c r="N40" t="n">
-        <v>-1.30019880288862</v>
+        <v>-1.10488235488235</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q40" t="n">
@@ -4083,7 +4083,7 @@
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -4095,11 +4095,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D41" t="b">
         <v>1</v>
@@ -4110,31 +4110,31 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.0369349410919466</v>
+        <v>0.297074102693577</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.0193236714975845</v>
       </c>
       <c r="H41" t="n">
-        <v>0.471590909090909</v>
+        <v>0.579710144927536</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J41" t="n">
-        <v>0.044</v>
+        <v>1.16</v>
       </c>
       <c r="K41" t="n">
-        <v>0.0007137984825639001</v>
+        <v>-0.0049931647300068</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>-0.0199955151171597</v>
       </c>
       <c r="M41" t="n">
-        <v>0.0013336376083979</v>
+        <v>0.009270756698859401</v>
       </c>
       <c r="N41" t="n">
-        <v>1.62226927855437</v>
+        <v>-0.430445235345417</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q41" t="n">
@@ -4174,7 +4174,7 @@
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -4186,11 +4186,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D42" t="b">
         <v>1</v>
@@ -4201,31 +4201,31 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.993902009498758</v>
+        <v>0.0021724418094969</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>0.0128205128205128</v>
       </c>
       <c r="H42" t="n">
-        <v>0.892045454545455</v>
+        <v>0.217948717948718</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>3.18</v>
+        <v>0.026</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.07123194912457879</v>
+        <v>0.0003744873547505</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.146753408848664</v>
+        <v>0.000142955395183</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.0190773227376385</v>
+        <v>0.0005997536945812</v>
       </c>
       <c r="N42" t="n">
-        <v>-2.23999840014399</v>
+        <v>1.44033597980966</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q42" t="n">
@@ -4265,7 +4265,7 @@
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4277,46 +4277,46 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C43" t="n">
         <v>20</v>
       </c>
       <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.999908512271876</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.0042735042735042</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.645299145299145</v>
+      </c>
+      <c r="I43" t="n">
         <v>1</v>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>0.728439214399688</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0.018957345971564</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0.559241706161137</v>
-      </c>
-      <c r="I43" t="n">
-        <v>4</v>
-      </c>
       <c r="J43" t="n">
-        <v>1.2</v>
+        <v>160</v>
       </c>
       <c r="K43" t="n">
-        <v>0.0039319174881421</v>
+        <v>-7.56859592711683</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.0090751219706254</v>
+        <v>-11.8289650229919</v>
       </c>
       <c r="M43" t="n">
-        <v>0.0199535645998361</v>
+        <v>-4.04376460530662</v>
       </c>
       <c r="N43" t="n">
-        <v>0.327659790678513</v>
+        <v>-4.73037245444802</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q43" t="n">
@@ -4356,7 +4356,7 @@
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -4368,46 +4368,46 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C44" t="n">
         <v>20</v>
       </c>
       <c r="D44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.0342818303011911</v>
+        <v>0.984814872835608</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0128755364806867</v>
+        <v>0.441964285714286</v>
       </c>
       <c r="H44" t="n">
-        <v>0.227467811158798</v>
+        <v>0.566964285714286</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="J44" t="n">
-        <v>0.026</v>
+        <v>0.0150235623228221</v>
       </c>
       <c r="K44" t="n">
-        <v>0.0002496582365003</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>-0.0003664737824725</v>
       </c>
       <c r="M44" t="n">
-        <v>0.0004969387755102</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0.960223986539775</v>
+        <v>0</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q44" t="n">
@@ -4459,46 +4459,46 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C45" t="n">
         <v>20</v>
       </c>
       <c r="D45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.999988471582742</v>
+        <v>0.9996242462881409</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0042918454935622</v>
+        <v>0.0740740740740741</v>
       </c>
       <c r="H45" t="n">
-        <v>0.639484978540773</v>
+        <v>0.787037037037037</v>
       </c>
       <c r="I45" t="n">
         <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>168</v>
+        <v>0.6855</v>
       </c>
       <c r="K45" t="n">
-        <v>-8.60255185248875</v>
+        <v>-0.0098312952197859</v>
       </c>
       <c r="L45" t="n">
-        <v>-12.9427082175382</v>
+        <v>-0.0161512447299275</v>
       </c>
       <c r="M45" t="n">
-        <v>-5.0587529528082</v>
+        <v>-0.004875736062273</v>
       </c>
       <c r="N45" t="n">
-        <v>-5.12056657886235</v>
+        <v>-1.43417873373975</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4538,7 +4538,7 @@
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4550,46 +4550,46 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C46" t="n">
         <v>20</v>
       </c>
       <c r="D46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.957130719274477</v>
+        <v>0.999487397324213</v>
       </c>
       <c r="G46" t="n">
-        <v>0.424107142857143</v>
+        <v>0.0258620689655172</v>
       </c>
       <c r="H46" t="n">
-        <v>0.580357142857143</v>
+        <v>0.900862068965517</v>
       </c>
       <c r="I46" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="J46" t="n">
-        <v>0.0156999102349645</v>
+        <v>0.681</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>-0.009570536674909799</v>
       </c>
       <c r="L46" t="n">
-        <v>-0.0002803042186426</v>
+        <v>-0.0152520323304067</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>-0.0040500672058275</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>-1.40536515050071</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q46" t="n">
@@ -4629,7 +4629,7 @@
       </c>
       <c r="W46" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -4641,7 +4641,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -4656,31 +4656,31 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.999999883411095</v>
+        <v>0.999594541139705</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0744186046511628</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.772093023255814</v>
+        <v>0.846153846153846</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>0.71</v>
+        <v>3.58</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.0175556214296715</v>
+        <v>-0.0786568194367753</v>
       </c>
       <c r="L47" t="n">
-        <v>-0.0231289866252348</v>
+        <v>-0.152735463120855</v>
       </c>
       <c r="M47" t="n">
-        <v>-0.0108048401075036</v>
+        <v>-0.0368792832495433</v>
       </c>
       <c r="N47" t="n">
-        <v>-2.47262273657346</v>
+        <v>-2.19711786136244</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -4732,46 +4732,46 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D48" t="b">
         <v>1</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.999999885996558</v>
+        <v>0.5403977987277711</v>
       </c>
       <c r="G48" t="n">
-        <v>0.025974025974026</v>
+        <v>0.0128205128205128</v>
       </c>
       <c r="H48" t="n">
-        <v>0.896103896103896</v>
+        <v>0.503205128205128</v>
       </c>
       <c r="I48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J48" t="n">
-        <v>0.702</v>
+        <v>1.15</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.0165103782287823</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>-0.0230189481480584</v>
+        <v>-0.0076886793276618</v>
       </c>
       <c r="M48" t="n">
-        <v>-0.0103889656948346</v>
+        <v>0.0090903434544549</v>
       </c>
       <c r="N48" t="n">
-        <v>-2.35190573059577</v>
+        <v>0</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4780,7 +4780,7 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q48" t="n">
@@ -4811,7 +4811,7 @@
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -4823,11 +4823,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D49" t="b">
         <v>1</v>
@@ -4838,31 +4838,31 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.999997096374817</v>
+        <v>0.0078506556183503</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>0.0226628895184136</v>
       </c>
       <c r="H49" t="n">
-        <v>0.832618025751073</v>
+        <v>0.155807365439093</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>3.44</v>
+        <v>0.026</v>
       </c>
       <c r="K49" t="n">
-        <v>-0.11512633268256</v>
+        <v>0.0001661737943585</v>
       </c>
       <c r="L49" t="n">
-        <v>-0.199870844356842</v>
+        <v>4.78865677188352e-05</v>
       </c>
       <c r="M49" t="n">
-        <v>-0.0649823502939859</v>
+        <v>0.0002773348519362</v>
       </c>
       <c r="N49" t="n">
-        <v>-3.34669571751627</v>
+        <v>0.639129978301953</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q49" t="n">
@@ -4902,7 +4902,7 @@
       </c>
       <c r="W49" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4914,46 +4914,46 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C50" t="n">
         <v>30</v>
       </c>
       <c r="D50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0.908455117139489</v>
+        <v>0.999999979190149</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0129032258064516</v>
+        <v>0.356913183279743</v>
       </c>
       <c r="H50" t="n">
-        <v>0.509677419354839</v>
+        <v>0.572347266881029</v>
       </c>
       <c r="I50" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J50" t="n">
-        <v>1.185</v>
+        <v>0.0175685172171286</v>
       </c>
       <c r="K50" t="n">
-        <v>0.0067152895181741</v>
+        <v>-0.0004661457898946</v>
       </c>
       <c r="L50" t="n">
-        <v>-0.0014312262150708</v>
+        <v>-0.0006147474040096</v>
       </c>
       <c r="M50" t="n">
-        <v>0.0161035969294495</v>
+        <v>-0.0003018051775839</v>
       </c>
       <c r="N50" t="n">
-        <v>0.566691098580096</v>
+        <v>-2.65330183608335</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q50" t="n">
@@ -4993,7 +4993,7 @@
       </c>
       <c r="W50" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -5005,7 +5005,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -5020,31 +5020,31 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0.0042948724820309</v>
+        <v>0.99999999611901</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0226628895184136</v>
+        <v>0.0507462686567164</v>
       </c>
       <c r="H51" t="n">
-        <v>0.155807365439093</v>
+        <v>0.623880597014925</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J51" t="n">
-        <v>0.025</v>
+        <v>0.76</v>
       </c>
       <c r="K51" t="n">
-        <v>0.0001669205585127</v>
+        <v>-0.0102259676954181</v>
       </c>
       <c r="L51" t="n">
-        <v>5.8856368770591e-05</v>
+        <v>-0.0138122498264336</v>
       </c>
       <c r="M51" t="n">
-        <v>0.0002838395879281</v>
+        <v>-0.0070786876120754</v>
       </c>
       <c r="N51" t="n">
-        <v>0.667682234050996</v>
+        <v>-1.3455220651866</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q51" t="n">
@@ -5096,46 +5096,46 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C52" t="n">
         <v>30</v>
       </c>
       <c r="D52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0.999998740176039</v>
+        <v>0.999999981070417</v>
       </c>
       <c r="G52" t="n">
-        <v>0.33974358974359</v>
+        <v>0.0188087774294671</v>
       </c>
       <c r="H52" t="n">
-        <v>0.583333333333333</v>
+        <v>0.874608150470219</v>
       </c>
       <c r="I52" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="J52" t="n">
-        <v>0.0181070982572068</v>
+        <v>0.74</v>
       </c>
       <c r="K52" t="n">
-        <v>-0.000388267789542</v>
+        <v>-0.0101061590937528</v>
       </c>
       <c r="L52" t="n">
-        <v>-0.0005336390151222</v>
+        <v>-0.0129627868210488</v>
       </c>
       <c r="M52" t="n">
-        <v>-0.0002119971591255</v>
+        <v>-0.0069170579828234</v>
       </c>
       <c r="N52" t="n">
-        <v>-2.14428498717333</v>
+        <v>-1.36569717483146</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5175,7 +5175,7 @@
       </c>
       <c r="W52" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -5187,7 +5187,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -5202,31 +5202,31 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0.999999994922494</v>
+        <v>0.999882238790483</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0507462686567164</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.6</v>
+        <v>0.7215909090909089</v>
       </c>
       <c r="I53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>0.75</v>
+        <v>4.52</v>
       </c>
       <c r="K53" t="n">
-        <v>-0.0102005539730835</v>
+        <v>-0.0587725667189953</v>
       </c>
       <c r="L53" t="n">
-        <v>-0.0133850203229806</v>
+        <v>-0.0832012207892725</v>
       </c>
       <c r="M53" t="n">
-        <v>-0.0072904501314529</v>
+        <v>-0.03173692295191</v>
       </c>
       <c r="N53" t="n">
-        <v>-1.3600738630778</v>
+        <v>-1.30027802475653</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
       </c>
       <c r="W53" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -5278,46 +5278,46 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D54" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>0.768783636774762</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
         <v>1</v>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>0.99999999606639</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0.0188087774294671</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0.874608150470219</v>
-      </c>
       <c r="I54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>0.736</v>
+        <v>0.398</v>
       </c>
       <c r="K54" t="n">
-        <v>-0.0103154881386861</v>
+        <v>0.03283423323569</v>
       </c>
       <c r="L54" t="n">
-        <v>-0.013094123158369</v>
+        <v>-0.0307072415146075</v>
       </c>
       <c r="M54" t="n">
-        <v>-0.0074997988687953</v>
+        <v>0.085914045241621</v>
       </c>
       <c r="N54" t="n">
-        <v>-1.40156088840844</v>
+        <v>8.249807345650749</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5326,7 +5326,7 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q54" t="n">
@@ -5355,11 +5355,7 @@
           <t>Mana_5a</t>
         </is>
       </c>
-      <c r="W54" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+      <c r="W54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5369,46 +5365,46 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D55" t="b">
+        <v>0</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
         <v>1</v>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>0.999999717424885</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0.704545454545455</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>4.59</v>
+        <v>100</v>
       </c>
       <c r="K55" t="n">
-        <v>-0.0791847329986308</v>
+        <v>0.494649931543689</v>
       </c>
       <c r="L55" t="n">
-        <v>-0.119843565355319</v>
+        <v>-6.19594261354164</v>
       </c>
       <c r="M55" t="n">
-        <v>-0.0543057078480153</v>
+        <v>4.69776225288867</v>
       </c>
       <c r="N55" t="n">
-        <v>-1.72515758166952</v>
+        <v>0.494649931543689</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5417,7 +5413,7 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q55" t="n">
@@ -5446,11 +5442,7 @@
           <t>Mana_5a</t>
         </is>
       </c>
-      <c r="W55" t="inlineStr">
-        <is>
-          <t>NTU/FNU</t>
-        </is>
-      </c>
+      <c r="W55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5460,7 +5452,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -5475,7 +5467,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0.889664319040077</v>
+        <v>0.95679463351315</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -5487,19 +5479,19 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>0.437</v>
+        <v>6.11</v>
       </c>
       <c r="K56" t="n">
-        <v>0.0176126412655686</v>
+        <v>0.460920927844145</v>
       </c>
       <c r="L56" t="n">
-        <v>-0.0783362942536877</v>
+        <v>-0.0958046376685979</v>
       </c>
       <c r="M56" t="n">
-        <v>0.085914045241621</v>
+        <v>0.918896893665718</v>
       </c>
       <c r="N56" t="n">
-        <v>4.03035269234979</v>
+        <v>7.54371404000238</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5508,7 +5500,7 @@
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q56" t="n">
@@ -5547,11 +5539,11 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D57" t="b">
         <v>0</v>
@@ -5562,7 +5554,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0.768783636774762</v>
+        <v>0.5</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -5574,19 +5566,19 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>100</v>
+        <v>0.402</v>
       </c>
       <c r="K57" t="n">
-        <v>3.03452473455598</v>
+        <v>0.0009595008756567</v>
       </c>
       <c r="L57" t="n">
-        <v>-6.34745600724281</v>
+        <v>-0.0192588163739839</v>
       </c>
       <c r="M57" t="n">
-        <v>4.69776225288867</v>
+        <v>0.0227856685728842</v>
       </c>
       <c r="N57" t="n">
-        <v>3.03452473455598</v>
+        <v>0.238681809864862</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5595,7 +5587,7 @@
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q57" t="n">
@@ -5634,11 +5626,11 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D58" t="b">
         <v>0</v>
@@ -5649,31 +5641,31 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0.95679463351315</v>
+        <v>0.79051913742033</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>4.668</v>
+        <v>98.05500000000001</v>
       </c>
       <c r="K58" t="n">
-        <v>0.510969987153194</v>
+        <v>0.710030647985989</v>
       </c>
       <c r="L58" t="n">
-        <v>-0.0001370277145293</v>
+        <v>-0.907075884144425</v>
       </c>
       <c r="M58" t="n">
-        <v>0.918896893665718</v>
+        <v>1.74475743433901</v>
       </c>
       <c r="N58" t="n">
-        <v>10.9462293734617</v>
+        <v>0.724114678482473</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5682,7 +5674,7 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q58" t="n">
@@ -5721,7 +5713,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -5736,7 +5728,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0.429013828493761</v>
+        <v>0.8144533152386511</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -5748,19 +5740,19 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>0.4215</v>
+        <v>4.951</v>
       </c>
       <c r="K59" t="n">
-        <v>-0.0087704407294832</v>
+        <v>0.14575296912114</v>
       </c>
       <c r="L59" t="n">
-        <v>-0.0269073052936267</v>
+        <v>-0.068932268998515</v>
       </c>
       <c r="M59" t="n">
-        <v>0.0226592418233693</v>
+        <v>0.310467208375229</v>
       </c>
       <c r="N59" t="n">
-        <v>-2.08076885634242</v>
+        <v>2.94390969745789</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5769,7 +5761,7 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q59" t="n">
@@ -5808,46 +5800,46 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D60" t="b">
         <v>0</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0.5</v>
+        <v>0.162211845260789</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>98.89</v>
+        <v>0.42</v>
       </c>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>-0.0037552759740259</v>
       </c>
       <c r="L60" t="n">
-        <v>-2.66326806322145</v>
+        <v>-0.018569838181376</v>
       </c>
       <c r="M60" t="n">
-        <v>1.6290531033573</v>
+        <v>0.0029677684517082</v>
       </c>
       <c r="N60" t="n">
-        <v>0</v>
+        <v>-0.894113327149039</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5856,7 +5848,7 @@
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q60" t="n">
@@ -5895,11 +5887,11 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D61" t="b">
         <v>0</v>
@@ -5910,31 +5902,31 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0.429013828493761</v>
+        <v>0.814060303616951</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>4.951</v>
+        <v>97.78</v>
       </c>
       <c r="K61" t="n">
-        <v>-0.0334148486980999</v>
+        <v>0.354127295118674</v>
       </c>
       <c r="L61" t="n">
-        <v>-0.172451026242749</v>
+        <v>-0.613904775940823</v>
       </c>
       <c r="M61" t="n">
-        <v>0.257655913981243</v>
+        <v>1.01536269428748</v>
       </c>
       <c r="N61" t="n">
-        <v>-0.674911102769135</v>
+        <v>0.36216741165747</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -5943,7 +5935,7 @@
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q61" t="n">
@@ -5982,7 +5974,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -5997,31 +5989,31 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0.654750942367696</v>
+        <v>0.413332984835078</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>97.78</v>
+        <v>4.991</v>
       </c>
       <c r="K62" t="n">
-        <v>0.197646103896104</v>
+        <v>-0.0201656314699793</v>
       </c>
       <c r="L62" t="n">
-        <v>-0.723212633938873</v>
+        <v>-0.08436433155608521</v>
       </c>
       <c r="M62" t="n">
-        <v>1.0090221195017</v>
+        <v>0.131400271315318</v>
       </c>
       <c r="N62" t="n">
-        <v>0.202133466860405</v>
+        <v>-0.404039901221786</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6084,31 +6076,31 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0.720977124401568</v>
+        <v>0.639741131178222</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>98.39</v>
+        <v>98.66500000000001</v>
       </c>
       <c r="K63" t="n">
-        <v>0.199083826035343</v>
+        <v>0.114992104694269</v>
       </c>
       <c r="L63" t="n">
-        <v>-0.401285592148496</v>
+        <v>-0.459706121506374</v>
       </c>
       <c r="M63" t="n">
-        <v>0.741424083648566</v>
+        <v>0.63695886677823</v>
       </c>
       <c r="N63" t="n">
-        <v>0.202341524581098</v>
+        <v>0.116548020771569</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6117,7 +6109,7 @@
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q63" t="n">

--- a/trend_results/Rivers/ManawatuatHopelands_65cebb97ae.xlsx
+++ b/trend_results/Rivers/ManawatuatHopelands_65cebb97ae.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="69">
   <si>
     <t>site name</t>
   </si>
@@ -136,58 +136,58 @@
     <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
   </si>
   <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>WARNING: Sen slope based on two censored values</t>
+  </si>
+  <si>
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>WARNING: Sen slope based on tied non-censored values</t>
   </si>
   <si>
-    <t>WARNING: Sen slope based on two censored values</t>
-  </si>
-  <si>
     <t>RepSite</t>
   </si>
   <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>Very unlikely increasing</t>
+  </si>
+  <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
     <t>Extremely likely improving</t>
   </si>
   <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>Unlikely increasing</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
+    <t>Extremely unlikely increasing</t>
+  </si>
+  <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
+    <t>As likely as not increasing</t>
+  </si>
+  <si>
     <t>Very unlikely improving</t>
   </si>
   <si>
-    <t>Very unlikely increasing</t>
-  </si>
-  <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely increasing</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>Unlikely increasing</t>
-  </si>
-  <si>
-    <t>Extremely unlikely increasing</t>
-  </si>
-  <si>
-    <t>As likely as not increasing</t>
-  </si>
-  <si>
-    <t>Virtually certain improving</t>
+    <t>Likely increasing</t>
   </si>
   <si>
     <t>Very likely improving</t>
@@ -578,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W63"/>
+  <dimension ref="A1:W67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -672,31 +672,31 @@
         <v>40</v>
       </c>
       <c r="F2">
-        <v>0.964340895198774</v>
+        <v>0.995279481315938</v>
       </c>
       <c r="G2">
-        <v>0.0256410256410256</v>
+        <v>0.03125</v>
       </c>
       <c r="H2">
-        <v>0.846153846153846</v>
+        <v>0.90625</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>40.5</v>
+        <v>23.75</v>
       </c>
       <c r="K2">
-        <v>-6.47014285714286</v>
+        <v>-12.2988763245683</v>
       </c>
       <c r="L2">
-        <v>-15.6172424062669</v>
+        <v>-29.0167979719069</v>
       </c>
       <c r="M2">
-        <v>-0.132394238715584</v>
+        <v>-4.44276619980888</v>
       </c>
       <c r="N2">
-        <v>-15.9756613756614</v>
+        <v>-51.7847424192349</v>
       </c>
       <c r="O2" t="s">
         <v>44</v>
@@ -737,37 +737,37 @@
         <v>5</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F3">
-        <v>0.055418247031418</v>
+        <v>0.328331550123231</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.865384615384615</v>
+        <v>0.854166666666667</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="K3">
-        <v>-0.121784709983413</v>
+        <v>-0.0429285426499367</v>
       </c>
       <c r="L3">
-        <v>-0.305602183358232</v>
+        <v>-0.249077152619279</v>
       </c>
       <c r="M3">
-        <v>-0.0158767064707294</v>
+        <v>0.104248440489328</v>
       </c>
       <c r="N3">
-        <v>-10.1487258319511</v>
+        <v>-3.63801208897769</v>
       </c>
       <c r="O3" t="s">
         <v>44</v>
@@ -811,7 +811,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4">
         <v>0.055707618213949</v>
@@ -820,25 +820,25 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.949152542372881</v>
+        <v>0.932203389830508</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.94</v>
+        <v>10.82</v>
       </c>
       <c r="K4">
-        <v>-0.117434154555122</v>
+        <v>-0.126265453296703</v>
       </c>
       <c r="L4">
-        <v>-0.208035255813176</v>
+        <v>-0.26322412943955</v>
       </c>
       <c r="M4">
-        <v>-0.0041826259114763</v>
+        <v>-0.0042130726879016</v>
       </c>
       <c r="N4">
-        <v>-1.0734383414545</v>
+        <v>-1.1669635239991</v>
       </c>
       <c r="O4" t="s">
         <v>44</v>
@@ -882,40 +882,40 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F5">
-        <v>0.605912282990371</v>
+        <v>0.999101249218354</v>
       </c>
       <c r="G5">
-        <v>0.0169491525423729</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.542372881355932</v>
+        <v>0.508474576271186</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0.029</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>-0.0027705436156763</v>
       </c>
       <c r="L5">
-        <v>-0.0015794599444711</v>
+        <v>-0.0048092250788435</v>
       </c>
       <c r="M5">
-        <v>0.001304483765952</v>
+        <v>-0.0011467817896389</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>-9.55359867474607</v>
       </c>
       <c r="O5" t="s">
         <v>44</v>
       </c>
       <c r="P5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q5">
         <v>1851498</v>
@@ -950,43 +950,43 @@
         <v>5</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6">
-        <v>0.281341927597306</v>
+        <v>0.729293831785381</v>
       </c>
       <c r="G6">
-        <v>0.0169491525423729</v>
+        <v>0.0344827586206897</v>
       </c>
       <c r="H6">
-        <v>0.745762711864407</v>
+        <v>0.793103448275862</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K6">
-        <v>8.97651992316626</v>
+        <v>-4.98068181818182</v>
       </c>
       <c r="L6">
-        <v>-12.504886832871</v>
+        <v>-26.2607390172816</v>
       </c>
       <c r="M6">
-        <v>29.052506187958</v>
+        <v>12.4391081314145</v>
       </c>
       <c r="N6">
-        <v>7.48043326930522</v>
+        <v>-4.52789256198347</v>
       </c>
       <c r="O6" t="s">
         <v>44</v>
       </c>
       <c r="P6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q6">
         <v>1851498</v>
@@ -1024,40 +1024,40 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F7">
-        <v>0.971065425268702</v>
+        <v>0.9535668636414349</v>
       </c>
       <c r="G7">
-        <v>0.385964912280702</v>
+        <v>0.421052631578947</v>
       </c>
       <c r="H7">
-        <v>0.666666666666667</v>
+        <v>0.578947368421053</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0.0133674018423732</v>
+        <v>0.0115816826854943</v>
       </c>
       <c r="K7">
-        <v>-0.0014745586702073</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>-0.0033431565513817</v>
+        <v>-0.002317133599596</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>-11.0310042863614</v>
+        <v>0</v>
       </c>
       <c r="O7" t="s">
         <v>44</v>
       </c>
       <c r="P7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="Q7">
         <v>1851498</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F8">
-        <v>0.129547614924543</v>
+        <v>0.978403730305483</v>
       </c>
       <c r="G8">
-        <v>0.152542372881356</v>
+        <v>0.186440677966102</v>
       </c>
       <c r="H8">
-        <v>0.254237288135593</v>
+        <v>0.23728813559322</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -1113,16 +1113,16 @@
         <v>0.005</v>
       </c>
       <c r="K8">
-        <v>0.0002508585164835</v>
+        <v>-0.0005017170329669999</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>-0.001003434065934</v>
       </c>
       <c r="M8">
-        <v>0.000664695177434</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>5.01717032967033</v>
+        <v>-10.0343406593407</v>
       </c>
       <c r="O8" t="s">
         <v>44</v>
@@ -1166,34 +1166,34 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F9">
-        <v>0.0475987980218213</v>
+        <v>0.668739708229971</v>
       </c>
       <c r="G9">
-        <v>0.101694915254237</v>
+        <v>0.152542372881356</v>
       </c>
       <c r="H9">
-        <v>0.88135593220339</v>
+        <v>0.830508474576271</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.635</v>
+        <v>0.498</v>
       </c>
       <c r="K9">
-        <v>0.0461263052784594</v>
+        <v>-0.0055286577946023</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>-0.0646314720494173</v>
       </c>
       <c r="M9">
-        <v>0.1030412024578</v>
+        <v>0.0280001656938561</v>
       </c>
       <c r="N9">
-        <v>7.26398508322195</v>
+        <v>-1.11017224791211</v>
       </c>
       <c r="O9" t="s">
         <v>44</v>
@@ -1237,34 +1237,34 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10">
-        <v>0.003789637286839</v>
+        <v>0.122291163171617</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.862068965517241</v>
+        <v>0.87719298245614</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.215</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="K10">
-        <v>-0.144323708206687</v>
+        <v>-0.0607875359195401</v>
       </c>
       <c r="L10">
-        <v>-0.227156086681859</v>
+        <v>-0.149953655080868</v>
       </c>
       <c r="M10">
-        <v>-0.0569644179824801</v>
+        <v>0.019497061119927</v>
       </c>
       <c r="N10">
-        <v>-1.75683150586351</v>
+        <v>-0.740408476486481</v>
       </c>
       <c r="O10" t="s">
         <v>44</v>
@@ -1305,34 +1305,34 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11">
-        <v>0.0256741662816303</v>
+        <v>0.5857034623906771</v>
       </c>
       <c r="G11">
-        <v>0.0508474576271186</v>
+        <v>0.0169491525423729</v>
       </c>
       <c r="H11">
-        <v>0.966101694915254</v>
+        <v>0.949152542372881</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>0.659</v>
+        <v>0.526</v>
       </c>
       <c r="K11">
-        <v>0.0494522600041468</v>
+        <v>-0.00449955751563</v>
       </c>
       <c r="L11">
-        <v>0.008270609007303999</v>
+        <v>-0.0659594013688525</v>
       </c>
       <c r="M11">
-        <v>0.113256984900621</v>
+        <v>0.0339254046038137</v>
       </c>
       <c r="N11">
-        <v>7.50413657119071</v>
+        <v>-0.855429185480997</v>
       </c>
       <c r="O11" t="s">
         <v>44</v>
@@ -1376,40 +1376,40 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F12">
-        <v>0.0023320791932577</v>
+        <v>0.5</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.813559322033898</v>
+        <v>0.847457627118644</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="K12">
-        <v>0.0993967706821481</v>
+        <v>0.0016831797235023</v>
       </c>
       <c r="L12">
-        <v>0.0484184004860431</v>
+        <v>-0.0209476816328396</v>
       </c>
       <c r="M12">
-        <v>0.142913034579563</v>
+        <v>0.0578564457262526</v>
       </c>
       <c r="N12">
-        <v>11.6937377273115</v>
+        <v>0.210397465437788</v>
       </c>
       <c r="O12" t="s">
         <v>44</v>
       </c>
       <c r="P12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q12">
         <v>1851498</v>
@@ -1447,10 +1447,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F13">
-        <v>0.447929471481199</v>
+        <v>0.813264944124652</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1465,16 +1465,16 @@
         <v>0.047</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>-0.001503086419753</v>
       </c>
       <c r="L13">
-        <v>-0.0023505007571941</v>
+        <v>-0.0041359999587545</v>
       </c>
       <c r="M13">
-        <v>0.0037487201975384</v>
+        <v>0.0016709832158106</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>-3.19805621224061</v>
       </c>
       <c r="O13" t="s">
         <v>44</v>
@@ -1518,16 +1518,16 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F14">
-        <v>0.0355984446376258</v>
+        <v>0.0024420315052737</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.966101694915254</v>
+        <v>0.9830508474576271</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1536,22 +1536,22 @@
         <v>3.11</v>
       </c>
       <c r="K14">
-        <v>0.384473684210526</v>
+        <v>0.468061182238814</v>
       </c>
       <c r="L14">
-        <v>0.0480152592635152</v>
+        <v>0.139118778729676</v>
       </c>
       <c r="M14">
-        <v>1.07526428740468</v>
+        <v>1.23527996393938</v>
       </c>
       <c r="N14">
-        <v>12.3624978845828</v>
+        <v>15.0501987858139</v>
       </c>
       <c r="O14" t="s">
         <v>44</v>
       </c>
       <c r="P14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q14">
         <v>1851498</v>
@@ -1589,40 +1589,40 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F15">
-        <v>0.84924375550767</v>
+        <v>0.889723169001279</v>
       </c>
       <c r="G15">
-        <v>0.0117647058823529</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="H15">
-        <v>0.741176470588235</v>
+        <v>0.789473684210526</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>43</v>
+        <v>40.75</v>
       </c>
       <c r="K15">
-        <v>-0.760048983614982</v>
+        <v>-1.15695849136115</v>
       </c>
       <c r="L15">
-        <v>-3.98769781968823</v>
+        <v>-4.72844767449801</v>
       </c>
       <c r="M15">
-        <v>0.511938099187028</v>
+        <v>0.274500280680415</v>
       </c>
       <c r="N15">
-        <v>-1.76755577584879</v>
+        <v>-2.83916194199054</v>
       </c>
       <c r="O15" t="s">
         <v>44</v>
       </c>
       <c r="P15" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Q15">
         <v>1851498</v>
@@ -1660,40 +1660,40 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F16">
-        <v>0.587166004049292</v>
+        <v>0.652997196574667</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.75</v>
+        <v>0.742574257425743</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1.075</v>
+        <v>1.05</v>
       </c>
       <c r="K16">
-        <v>0.0100343406593407</v>
+        <v>0.0112346206425154</v>
       </c>
       <c r="L16">
-        <v>-0.0237537437021175</v>
+        <v>-0.0163332048850806</v>
       </c>
       <c r="M16">
-        <v>0.0569647652101408</v>
+        <v>0.0741012123552937</v>
       </c>
       <c r="N16">
-        <v>0.933427038078202</v>
+        <v>1.06996387071575</v>
       </c>
       <c r="O16" t="s">
         <v>44</v>
       </c>
       <c r="P16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q16">
         <v>1851498</v>
@@ -1728,43 +1728,43 @@
         <v>10</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F17">
-        <v>0.30986462292817</v>
+        <v>0.085510356228003</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.882352941176471</v>
+        <v>0.890756302521008</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.06</v>
+        <v>11.04</v>
       </c>
       <c r="K17">
-        <v>-0.0171077283372364</v>
+        <v>-0.0484788683199442</v>
       </c>
       <c r="L17">
-        <v>-0.0919118515769702</v>
+        <v>-0.107633048488188</v>
       </c>
       <c r="M17">
-        <v>0.050171703296704</v>
+        <v>0.0105174344207358</v>
       </c>
       <c r="N17">
-        <v>-0.154681088040112</v>
+        <v>-0.439120184057466</v>
       </c>
       <c r="O17" t="s">
         <v>44</v>
       </c>
       <c r="P17" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="Q17">
         <v>1851498</v>
@@ -1802,16 +1802,16 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F18">
-        <v>0.0056038923312269</v>
+        <v>0.110205638894512</v>
       </c>
       <c r="G18">
-        <v>0.008403361344537799</v>
+        <v>0.0168067226890756</v>
       </c>
       <c r="H18">
-        <v>0.361344537815126</v>
+        <v>0.369747899159664</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1820,22 +1820,22 @@
         <v>0.027</v>
       </c>
       <c r="K18">
-        <v>0.000831531018782</v>
+        <v>0.0004276932084309</v>
       </c>
       <c r="L18">
-        <v>0.0003122765677422</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.00143026560637</v>
+        <v>0.0010003252566267</v>
       </c>
       <c r="N18">
-        <v>3.07974451400747</v>
+        <v>1.5840489201145</v>
       </c>
       <c r="O18" t="s">
         <v>44</v>
       </c>
       <c r="P18" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="Q18">
         <v>1851498</v>
@@ -1873,40 +1873,40 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F19">
-        <v>0.58100198583772</v>
+        <v>0.656327444090602</v>
       </c>
       <c r="G19">
-        <v>0.008403361344537799</v>
+        <v>0.0169491525423729</v>
       </c>
       <c r="H19">
-        <v>0.697478991596639</v>
+        <v>0.720338983050847</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K19">
-        <v>-0.555091185410334</v>
+        <v>-1.41023166023166</v>
       </c>
       <c r="L19">
-        <v>-7.58310244941172</v>
+        <v>-7.77328629206824</v>
       </c>
       <c r="M19">
-        <v>6.07369864802714</v>
+        <v>5.21785714285714</v>
       </c>
       <c r="N19">
-        <v>-0.426993219546411</v>
+        <v>-1.17519305019305</v>
       </c>
       <c r="O19" t="s">
         <v>44</v>
       </c>
       <c r="P19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q19">
         <v>1851498</v>
@@ -1944,22 +1944,22 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F20">
-        <v>0.0789654966618106</v>
+        <v>0.209450368081611</v>
       </c>
       <c r="G20">
-        <v>0.540540540540541</v>
+        <v>0.536363636363636</v>
       </c>
       <c r="H20">
-        <v>0.504504504504504</v>
+        <v>0.509090909090909</v>
       </c>
       <c r="I20">
         <v>9</v>
       </c>
       <c r="J20">
-        <v>0.0115816826854943</v>
+        <v>0.0117031659507279</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.0002559308426292</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2018,37 +2018,37 @@
         <v>40</v>
       </c>
       <c r="F21">
-        <v>0.521301548097121</v>
+        <v>0.984208024783252</v>
       </c>
       <c r="G21">
-        <v>0.109243697478992</v>
+        <v>0.159663865546218</v>
       </c>
       <c r="H21">
-        <v>0.168067226890756</v>
+        <v>0.151260504201681</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>-0.0002496582365003</v>
       </c>
       <c r="L21">
-        <v>-0.0001667047010497</v>
+        <v>-0.0004967674387501</v>
       </c>
       <c r="M21">
-        <v>0.0001663766535229</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>-4.99316473000683</v>
       </c>
       <c r="O21" t="s">
         <v>44</v>
       </c>
       <c r="P21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q21">
         <v>1851498</v>
@@ -2086,40 +2086,40 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F22">
-        <v>0.206905491381009</v>
+        <v>0.835986813312839</v>
       </c>
       <c r="G22">
-        <v>0.100840336134454</v>
+        <v>0.134453781512605</v>
       </c>
       <c r="H22">
-        <v>0.823529411764706</v>
+        <v>0.781512605042017</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.6286</v>
+        <v>0.6177</v>
       </c>
       <c r="K22">
-        <v>0.0034309197651663</v>
+        <v>-0.0038713133640553</v>
       </c>
       <c r="L22">
-        <v>-0.0028594745688533</v>
+        <v>-0.0179926108374384</v>
       </c>
       <c r="M22">
-        <v>0.0152827035410691</v>
+        <v>0.0014482167683362</v>
       </c>
       <c r="N22">
-        <v>0.545803335215772</v>
+        <v>-0.62673034872192</v>
       </c>
       <c r="O22" t="s">
         <v>44</v>
       </c>
       <c r="P22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q22">
         <v>1851498</v>
@@ -2157,40 +2157,40 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F23">
-        <v>0.025445239747839</v>
+        <v>0.030861544145546</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.726495726495726</v>
+        <v>0.732758620689655</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.050000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K23">
-        <v>-0.0378394220283536</v>
+        <v>-0.0314071332328124</v>
       </c>
       <c r="L23">
-        <v>-0.0551994948818077</v>
+        <v>-0.0553169198986486</v>
       </c>
       <c r="M23">
-        <v>-0.0068780526739656</v>
+        <v>-0.0018729180317242</v>
       </c>
       <c r="N23">
-        <v>-0.470054932029237</v>
+        <v>-0.383013819912346</v>
       </c>
       <c r="O23" t="s">
         <v>44</v>
       </c>
       <c r="P23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q23">
         <v>1851498</v>
@@ -2225,40 +2225,40 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F24">
-        <v>0.147502165038468</v>
+        <v>0.699722746499729</v>
       </c>
       <c r="G24">
         <v>0.0504201680672269</v>
       </c>
       <c r="H24">
-        <v>0.915966386554622</v>
+        <v>0.890756302521008</v>
       </c>
       <c r="I24">
         <v>2</v>
       </c>
       <c r="J24">
-        <v>0.65</v>
+        <v>0.634</v>
       </c>
       <c r="K24">
-        <v>0.0063072998430141</v>
+        <v>-0.0023717532467532</v>
       </c>
       <c r="L24">
-        <v>-0.0027010721782663</v>
+        <v>-0.0179869125431512</v>
       </c>
       <c r="M24">
-        <v>0.0181215245055858</v>
+        <v>0.0052835234295521</v>
       </c>
       <c r="N24">
-        <v>0.970353822002173</v>
+        <v>-0.374093572043099</v>
       </c>
       <c r="O24" t="s">
         <v>44</v>
       </c>
       <c r="P24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q24">
         <v>1851498</v>
@@ -2296,34 +2296,34 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F25">
-        <v>0.33786039001518</v>
+        <v>0.690374618995377</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.764705882352941</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="K25">
-        <v>0.0039830970556161</v>
+        <v>-0.0050011410314924</v>
       </c>
       <c r="L25">
-        <v>-0.0079958429856813</v>
+        <v>-0.0128518831491417</v>
       </c>
       <c r="M25">
-        <v>0.0195987672808296</v>
+        <v>0.0071035628553364</v>
       </c>
       <c r="N25">
-        <v>0.442566339512904</v>
+        <v>-0.588369533116762</v>
       </c>
       <c r="O25" t="s">
         <v>44</v>
@@ -2367,10 +2367,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F26">
-        <v>0.0307044623982759</v>
+        <v>0.104801551015386</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2382,25 +2382,25 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0.044</v>
+        <v>0.045</v>
       </c>
       <c r="K26">
-        <v>0.0011384415584415</v>
+        <v>0.0008027472527472</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>-0.000206669971994</v>
       </c>
       <c r="M26">
-        <v>0.0022643792110319</v>
+        <v>0.0020902086198694</v>
       </c>
       <c r="N26">
-        <v>2.58736717827627</v>
+        <v>1.78388278388279</v>
       </c>
       <c r="O26" t="s">
         <v>44</v>
       </c>
       <c r="P26" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Q26">
         <v>1851498</v>
@@ -2438,40 +2438,40 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F27">
-        <v>0.160567080492536</v>
+        <v>0.0208512316550246</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.9411764705882349</v>
+        <v>0.9327731092436971</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>3.19</v>
+        <v>2.73</v>
       </c>
       <c r="K27">
-        <v>0.0650148334094021</v>
+        <v>0.101958128078818</v>
       </c>
       <c r="L27">
-        <v>-0.0367925824175824</v>
+        <v>0.0228724273190967</v>
       </c>
       <c r="M27">
-        <v>0.215221797379297</v>
+        <v>0.222195858152902</v>
       </c>
       <c r="N27">
-        <v>2.03808255201887</v>
+        <v>3.73472996625706</v>
       </c>
       <c r="O27" t="s">
         <v>44</v>
       </c>
       <c r="P27" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="Q27">
         <v>1851498</v>
@@ -2509,40 +2509,40 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F28">
-        <v>0.460475635284692</v>
+        <v>0.440475676045318</v>
       </c>
       <c r="G28">
-        <v>0.0072992700729927</v>
+        <v>0.0076335877862595</v>
       </c>
       <c r="H28">
-        <v>0.6934306569343071</v>
+        <v>0.717557251908397</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28">
-        <v>37.5</v>
+        <v>29.5</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>0.0235807005494505</v>
       </c>
       <c r="L28">
-        <v>-1.22878464971347</v>
+        <v>-1.22882030589452</v>
       </c>
       <c r="M28">
-        <v>0.77852987245294</v>
+        <v>0.827830212138046</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>0.0799345781337307</v>
       </c>
       <c r="O28" t="s">
         <v>44</v>
       </c>
       <c r="P28" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q28">
         <v>1851498</v>
@@ -2580,34 +2580,34 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F29">
-        <v>0.060201022479677</v>
+        <v>0.293489475409518</v>
       </c>
       <c r="G29">
-        <v>0.01875</v>
+        <v>0.0064102564102564</v>
       </c>
       <c r="H29">
-        <v>0.65</v>
+        <v>0.641025641025641</v>
       </c>
       <c r="I29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J29">
-        <v>1.15</v>
+        <v>1.125</v>
       </c>
       <c r="K29">
-        <v>-0.0200686813186813</v>
+        <v>-0.0071282201405152</v>
       </c>
       <c r="L29">
-        <v>-0.0499659845504949</v>
+        <v>-0.0239901477832512</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>0.0200251303720599</v>
       </c>
       <c r="N29">
-        <v>-1.74510272336359</v>
+        <v>-0.633619568045797</v>
       </c>
       <c r="O29" t="s">
         <v>44</v>
@@ -2651,40 +2651,40 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F30">
-        <v>0.360765345344411</v>
+        <v>0.341081776598034</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0.805714285714286</v>
+        <v>0.807909604519774</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>10.95</v>
+        <v>10.93</v>
       </c>
       <c r="K30">
-        <v>-0.0065989159891603</v>
+        <v>-0.0066229338817502</v>
       </c>
       <c r="L30">
-        <v>-0.0421712954940466</v>
+        <v>-0.0359097821767344</v>
       </c>
       <c r="M30">
-        <v>0.0365716939936485</v>
+        <v>0.0310314860394638</v>
       </c>
       <c r="N30">
-        <v>-0.0602640729603684</v>
+        <v>-0.0605940885795997</v>
       </c>
       <c r="O30" t="s">
         <v>44</v>
       </c>
       <c r="P30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q30">
         <v>1851498</v>
@@ -2722,13 +2722,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F31">
-        <v>0.001262613476559</v>
+        <v>0.0343330596489313</v>
       </c>
       <c r="G31">
-        <v>0.0112994350282486</v>
+        <v>0.0169491525423729</v>
       </c>
       <c r="H31">
         <v>0.254237288135593</v>
@@ -2740,22 +2740,22 @@
         <v>0.026</v>
       </c>
       <c r="K31">
-        <v>0.0005997536945812</v>
+        <v>0.0003760629969464</v>
       </c>
       <c r="L31">
-        <v>0.0002802285009318</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>0.0009317602040816</v>
+        <v>0.0007048582032899</v>
       </c>
       <c r="N31">
-        <v>2.30674497915877</v>
+        <v>1.44639614210167</v>
       </c>
       <c r="O31" t="s">
         <v>44</v>
       </c>
       <c r="P31" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q31">
         <v>1851498</v>
@@ -2793,40 +2793,40 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F32">
-        <v>0.7287467458833961</v>
+        <v>0.851200026863202</v>
       </c>
       <c r="G32">
-        <v>0.0056497175141242</v>
+        <v>0.0113636363636364</v>
       </c>
       <c r="H32">
-        <v>0.68361581920904</v>
+        <v>0.693181818181818</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J32">
-        <v>130</v>
+        <v>128.5</v>
       </c>
       <c r="K32">
-        <v>-1.32713643420882</v>
+        <v>-2.30522044856228</v>
       </c>
       <c r="L32">
-        <v>-5.31506692170418</v>
+        <v>-6.62162611424623</v>
       </c>
       <c r="M32">
-        <v>2.1852211693398</v>
+        <v>1.15854876747398</v>
       </c>
       <c r="N32">
-        <v>-1.02087418016063</v>
+        <v>-1.79394587436753</v>
       </c>
       <c r="O32" t="s">
         <v>44</v>
       </c>
       <c r="P32" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Q32">
         <v>1851498</v>
@@ -2864,40 +2864,40 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F33">
-        <v>0.9926161271098199</v>
+        <v>0.981383088332051</v>
       </c>
       <c r="G33">
-        <v>0.449704142011834</v>
+        <v>0.476190476190476</v>
       </c>
       <c r="H33">
-        <v>0.568047337278107</v>
+        <v>0.553571428571429</v>
       </c>
       <c r="I33">
         <v>11</v>
       </c>
       <c r="J33">
-        <v>0.0148987259668801</v>
+        <v>0.0139052468016745</v>
       </c>
       <c r="K33">
-        <v>-0.0001640792446526</v>
+        <v>0</v>
       </c>
       <c r="L33">
-        <v>-0.0007702432931203001</v>
+        <v>-0.0006122936419967</v>
       </c>
       <c r="M33">
         <v>0</v>
       </c>
       <c r="N33">
-        <v>-1.10129715129591</v>
+        <v>0</v>
       </c>
       <c r="O33" t="s">
         <v>44</v>
       </c>
       <c r="P33" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="Q33">
         <v>1851498</v>
@@ -2935,16 +2935,16 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F34">
-        <v>0.47406996143512</v>
+        <v>0.866449675107961</v>
       </c>
       <c r="G34">
-        <v>0.137724550898204</v>
+        <v>0.163841807909605</v>
       </c>
       <c r="H34">
-        <v>0.137724550898204</v>
+        <v>0.124293785310734</v>
       </c>
       <c r="I34">
         <v>2</v>
@@ -2956,10 +2956,10 @@
         <v>0</v>
       </c>
       <c r="L34">
-        <v>-0.0001361180124223</v>
+        <v>-0.0001667635730294</v>
       </c>
       <c r="M34">
-        <v>9.9756105275879E-05</v>
+        <v>0</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -3006,40 +3006,40 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F35">
-        <v>0.684727647695633</v>
+        <v>0.991005703536001</v>
       </c>
       <c r="G35">
-        <v>0.0958083832335329</v>
+        <v>0.124293785310734</v>
       </c>
       <c r="H35">
-        <v>0.820359281437126</v>
+        <v>0.7909604519774009</v>
       </c>
       <c r="I35">
         <v>1</v>
       </c>
       <c r="J35">
-        <v>0.625</v>
+        <v>0.62</v>
       </c>
       <c r="K35">
-        <v>-0.0004209036992952</v>
+        <v>-0.0063064257715281</v>
       </c>
       <c r="L35">
-        <v>-0.0077290221070503</v>
+        <v>-0.0150287904565497</v>
       </c>
       <c r="M35">
-        <v>0.0034498773936769</v>
+        <v>-0.00048418208613</v>
       </c>
       <c r="N35">
-        <v>-0.067344591887242</v>
+        <v>-1.01716544702066</v>
       </c>
       <c r="O35" t="s">
         <v>44</v>
       </c>
       <c r="P35" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="Q35">
         <v>1851498</v>
@@ -3077,40 +3077,40 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F36">
-        <v>0.105746478316142</v>
+        <v>0.103797745887254</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.662857142857143</v>
+        <v>0.649425287356322</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>8.19</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="K36">
-        <v>-0.0115795479824341</v>
+        <v>-0.009950635624178399</v>
       </c>
       <c r="L36">
-        <v>-0.0313891304772325</v>
+        <v>-0.0279692282774958</v>
       </c>
       <c r="M36">
-        <v>0.0037280406185458</v>
+        <v>0.0027438361556662</v>
       </c>
       <c r="N36">
-        <v>-0.141386422251943</v>
+        <v>-0.121201408333476</v>
       </c>
       <c r="O36" t="s">
         <v>44</v>
       </c>
       <c r="P36" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Q36">
         <v>1851498</v>
@@ -3148,37 +3148,37 @@
         <v>40</v>
       </c>
       <c r="F37">
-        <v>0.850796046826591</v>
+        <v>0.979870210280536</v>
       </c>
       <c r="G37">
         <v>0.0338983050847458</v>
       </c>
       <c r="H37">
-        <v>0.9209039548022599</v>
+        <v>0.898305084745763</v>
       </c>
       <c r="I37">
         <v>2</v>
       </c>
       <c r="J37">
-        <v>0.65</v>
+        <v>0.637</v>
       </c>
       <c r="K37">
-        <v>-0.0038101353736008</v>
+        <v>-0.0081711656400918</v>
       </c>
       <c r="L37">
-        <v>-0.0115210697053941</v>
+        <v>-0.0155114734713843</v>
       </c>
       <c r="M37">
-        <v>0.0019408012215509</v>
+        <v>-0.0010828194347049</v>
       </c>
       <c r="N37">
-        <v>-0.586174672861674</v>
+        <v>-1.28275755731425</v>
       </c>
       <c r="O37" t="s">
         <v>44</v>
       </c>
       <c r="P37" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Q37">
         <v>1851498</v>
@@ -3216,34 +3216,34 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F38">
-        <v>0.976746638372933</v>
+        <v>0.997846203906157</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>0.711864406779661</v>
+        <v>0.689265536723164</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0.92</v>
+        <v>0.865</v>
       </c>
       <c r="K38">
-        <v>-0.0088671718481155</v>
+        <v>-0.011241986343722</v>
       </c>
       <c r="L38">
-        <v>-0.0158163472935624</v>
+        <v>-0.0175962864416903</v>
       </c>
       <c r="M38">
-        <v>-0.0021998191824769</v>
+        <v>-0.0050171703296703</v>
       </c>
       <c r="N38">
-        <v>-0.963823026969085</v>
+        <v>-1.29965160043029</v>
       </c>
       <c r="O38" t="s">
         <v>44</v>
@@ -3287,16 +3287,16 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F39">
-        <v>0.126657694602638</v>
+        <v>0.084263268879432</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>0.474576271186441</v>
+        <v>0.457627118644068</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -3305,22 +3305,22 @@
         <v>0.044</v>
       </c>
       <c r="K39">
-        <v>0.0004968261420615</v>
+        <v>0.0005289958908362</v>
       </c>
       <c r="L39">
-        <v>-0.0002075092315404</v>
+        <v>-0.0001277010204256</v>
       </c>
       <c r="M39">
-        <v>0.0012254363910721</v>
+        <v>0.0013336376083979</v>
       </c>
       <c r="N39">
-        <v>1.12915032286713</v>
+        <v>1.20226338826419</v>
       </c>
       <c r="O39" t="s">
         <v>44</v>
       </c>
       <c r="P39" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="Q39">
         <v>1851498</v>
@@ -3358,16 +3358,16 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F40">
-        <v>0.924113075072421</v>
+        <v>0.8400176671042811</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>0.892655367231638</v>
+        <v>0.870056497175141</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -3376,22 +3376,22 @@
         <v>3.33</v>
       </c>
       <c r="K40">
-        <v>-0.0367925824175824</v>
+        <v>-0.0294527127924341</v>
       </c>
       <c r="L40">
-        <v>-0.0961461667431829</v>
+        <v>-0.104028761166989</v>
       </c>
       <c r="M40">
-        <v>0.0087466391095542</v>
+        <v>0.0204193313695977</v>
       </c>
       <c r="N40">
-        <v>-1.10488235488235</v>
+        <v>-0.884465849622645</v>
       </c>
       <c r="O40" t="s">
         <v>44</v>
       </c>
       <c r="P40" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="Q40">
         <v>1851498</v>
@@ -3429,40 +3429,40 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F41">
-        <v>0.297074102693577</v>
+        <v>0.135488249053968</v>
       </c>
       <c r="G41">
-        <v>0.0193236714975845</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="H41">
-        <v>0.579710144927536</v>
+        <v>0.563725490196078</v>
       </c>
       <c r="I41">
         <v>4</v>
       </c>
       <c r="J41">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="K41">
-        <v>-0.0049931647300068</v>
+        <v>-0.009286271375859899</v>
       </c>
       <c r="L41">
-        <v>-0.0199955151171597</v>
+        <v>-0.0232125244004898</v>
       </c>
       <c r="M41">
-        <v>0.009270756698859401</v>
+        <v>0.0027422706941976</v>
       </c>
       <c r="N41">
-        <v>-0.430445235345417</v>
+        <v>-0.786972150496606</v>
       </c>
       <c r="O41" t="s">
         <v>44</v>
       </c>
       <c r="P41" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q41">
         <v>1851498</v>
@@ -3491,7 +3491,7 @@
         <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C42">
         <v>20</v>
@@ -3500,40 +3500,40 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F42">
-        <v>0.0021724418094969</v>
+        <v>0.046019610738537</v>
       </c>
       <c r="G42">
-        <v>0.0128205128205128</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>0.217948717948718</v>
+        <v>0.78894472361809</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>0.026</v>
+        <v>11.03</v>
       </c>
       <c r="K42">
-        <v>0.0003744873547505</v>
+        <v>-0.0246042938409875</v>
       </c>
       <c r="L42">
-        <v>0.000142955395183</v>
+        <v>-0.0597361726132463</v>
       </c>
       <c r="M42">
-        <v>0.0005997536945812</v>
+        <v>-0.0018382581281591</v>
       </c>
       <c r="N42">
-        <v>1.44033597980966</v>
+        <v>-0.223067033916478</v>
       </c>
       <c r="O42" t="s">
         <v>44</v>
       </c>
       <c r="P42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q42">
         <v>1851498</v>
@@ -3554,7 +3554,7 @@
         <v>62</v>
       </c>
       <c r="W42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3562,49 +3562,49 @@
         <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C43">
         <v>20</v>
       </c>
       <c r="D43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F43">
-        <v>0.999908512271876</v>
+        <v>0.06929100618817111</v>
       </c>
       <c r="G43">
-        <v>0.0042735042735042</v>
+        <v>0.0170212765957447</v>
       </c>
       <c r="H43">
-        <v>0.645299145299145</v>
+        <v>0.217021276595745</v>
       </c>
       <c r="I43">
         <v>1</v>
       </c>
       <c r="J43">
-        <v>160</v>
+        <v>0.025</v>
       </c>
       <c r="K43">
-        <v>-7.56859592711683</v>
+        <v>0.0001667427527961</v>
       </c>
       <c r="L43">
-        <v>-11.8289650229919</v>
+        <v>0</v>
       </c>
       <c r="M43">
-        <v>-4.04376460530662</v>
+        <v>0.0004440729483282</v>
       </c>
       <c r="N43">
-        <v>-4.73037245444802</v>
+        <v>0.666971011184661</v>
       </c>
       <c r="O43" t="s">
         <v>44</v>
       </c>
       <c r="P43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q43">
         <v>1851498</v>
@@ -3625,7 +3625,7 @@
         <v>62</v>
       </c>
       <c r="W43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3633,7 +3633,7 @@
         <v>23</v>
       </c>
       <c r="B44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C44">
         <v>20</v>
@@ -3645,31 +3645,31 @@
         <v>40</v>
       </c>
       <c r="F44">
-        <v>0.984814872835608</v>
+        <v>0.999465744482067</v>
       </c>
       <c r="G44">
-        <v>0.441964285714286</v>
+        <v>0.008547008547008499</v>
       </c>
       <c r="H44">
-        <v>0.566964285714286</v>
+        <v>0.670940170940171</v>
       </c>
       <c r="I44">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="J44">
-        <v>0.0150235623228221</v>
+        <v>150</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>-6.02670429874077</v>
       </c>
       <c r="L44">
-        <v>-0.0003664737824725</v>
+        <v>-9.557231474033051</v>
       </c>
       <c r="M44">
-        <v>0</v>
+        <v>-2.86463497560285</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>-4.01780286582718</v>
       </c>
       <c r="O44" t="s">
         <v>44</v>
@@ -3696,7 +3696,7 @@
         <v>62</v>
       </c>
       <c r="W44" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3704,49 +3704,49 @@
         <v>23</v>
       </c>
       <c r="B45" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C45">
         <v>20</v>
       </c>
       <c r="D45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F45">
-        <v>0.9996242462881409</v>
+        <v>0.986535638748385</v>
       </c>
       <c r="G45">
-        <v>0.0740740740740741</v>
+        <v>0.455752212389381</v>
       </c>
       <c r="H45">
-        <v>0.787037037037037</v>
+        <v>0.561946902654867</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="J45">
-        <v>0.6855</v>
+        <v>0.0147627817716032</v>
       </c>
       <c r="K45">
-        <v>-0.0098312952197859</v>
+        <v>0</v>
       </c>
       <c r="L45">
-        <v>-0.0161512447299275</v>
+        <v>-0.0003814380289803</v>
       </c>
       <c r="M45">
-        <v>-0.004875736062273</v>
+        <v>0</v>
       </c>
       <c r="N45">
-        <v>-1.43417873373975</v>
+        <v>0</v>
       </c>
       <c r="O45" t="s">
         <v>44</v>
       </c>
       <c r="P45" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="Q45">
         <v>1851498</v>
@@ -3775,7 +3775,7 @@
         <v>23</v>
       </c>
       <c r="B46" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C46">
         <v>20</v>
@@ -3784,40 +3784,40 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F46">
-        <v>0.999487397324213</v>
+        <v>0.999916077945061</v>
       </c>
       <c r="G46">
-        <v>0.0258620689655172</v>
+        <v>0.101382488479263</v>
       </c>
       <c r="H46">
-        <v>0.900862068965517</v>
+        <v>0.788018433179724</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J46">
-        <v>0.681</v>
+        <v>0.6286</v>
       </c>
       <c r="K46">
-        <v>-0.009570536674909799</v>
+        <v>-0.008790125247717001</v>
       </c>
       <c r="L46">
-        <v>-0.0152520323304067</v>
+        <v>-0.0148742906514937</v>
       </c>
       <c r="M46">
-        <v>-0.0040500672058275</v>
+        <v>-0.0047220846605171</v>
       </c>
       <c r="N46">
-        <v>-1.40536515050071</v>
+        <v>-1.39836545461614</v>
       </c>
       <c r="O46" t="s">
         <v>44</v>
       </c>
       <c r="P46" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="Q46">
         <v>1851498</v>
@@ -3838,7 +3838,7 @@
         <v>62</v>
       </c>
       <c r="W46" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3846,7 +3846,7 @@
         <v>23</v>
       </c>
       <c r="B47" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C47">
         <v>20</v>
@@ -3855,34 +3855,34 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F47">
-        <v>0.999594541139705</v>
+        <v>0.71811824685044</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47">
-        <v>0.846153846153846</v>
+        <v>0.6057692307692309</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47">
-        <v>3.58</v>
+        <v>8.1</v>
       </c>
       <c r="K47">
-        <v>-0.0786568194367753</v>
+        <v>0.003983097055616</v>
       </c>
       <c r="L47">
-        <v>-0.152735463120855</v>
+        <v>-0.0075029543711471</v>
       </c>
       <c r="M47">
-        <v>-0.0368792832495433</v>
+        <v>0.0145485617690909</v>
       </c>
       <c r="N47">
-        <v>-2.19711786136244</v>
+        <v>0.049174037723655</v>
       </c>
       <c r="O47" t="s">
         <v>44</v>
@@ -3908,58 +3908,55 @@
       <c r="V47" t="s">
         <v>62</v>
       </c>
-      <c r="W47" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="48" spans="1:23">
       <c r="A48" t="s">
         <v>23</v>
       </c>
       <c r="B48" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C48">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D48" t="b">
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F48">
-        <v>0.5403977987277711</v>
+        <v>0.99987904880131</v>
       </c>
       <c r="G48">
-        <v>0.0128205128205128</v>
+        <v>0.025531914893617</v>
       </c>
       <c r="H48">
-        <v>0.503205128205128</v>
+        <v>0.88936170212766</v>
       </c>
       <c r="I48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J48">
-        <v>1.15</v>
+        <v>0.655</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>-0.0095097636176772</v>
       </c>
       <c r="L48">
-        <v>-0.0076886793276618</v>
+        <v>-0.0149279546431914</v>
       </c>
       <c r="M48">
-        <v>0.0090903434544549</v>
+        <v>-0.0043912559990055</v>
       </c>
       <c r="N48">
-        <v>0</v>
+        <v>-1.45187230804233</v>
       </c>
       <c r="O48" t="s">
         <v>44</v>
       </c>
       <c r="P48" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q48">
         <v>1851498</v>
@@ -3980,7 +3977,7 @@
         <v>62</v>
       </c>
       <c r="W48" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3988,49 +3985,49 @@
         <v>23</v>
       </c>
       <c r="B49" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C49">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D49" t="b">
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F49">
-        <v>0.0078506556183503</v>
+        <v>0.999348635830259</v>
       </c>
       <c r="G49">
-        <v>0.0226628895184136</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>0.155807365439093</v>
+        <v>0.64622641509434</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>0.026</v>
+        <v>0.91</v>
       </c>
       <c r="K49">
-        <v>0.0001661737943585</v>
+        <v>-0.0087308535162031</v>
       </c>
       <c r="L49">
-        <v>4.78865677188352E-05</v>
+        <v>-0.0137312030075188</v>
       </c>
       <c r="M49">
-        <v>0.0002773348519362</v>
+        <v>-0.0043575949264552</v>
       </c>
       <c r="N49">
-        <v>0.639129978301953</v>
+        <v>-0.959434452330013</v>
       </c>
       <c r="O49" t="s">
         <v>44</v>
       </c>
       <c r="P49" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="Q49">
         <v>1851498</v>
@@ -4051,7 +4048,7 @@
         <v>62</v>
       </c>
       <c r="W49" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -4059,49 +4056,49 @@
         <v>23</v>
       </c>
       <c r="B50" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C50">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" t="s">
         <v>40</v>
       </c>
       <c r="F50">
-        <v>0.999999979190149</v>
+        <v>0.0503267738821972</v>
       </c>
       <c r="G50">
-        <v>0.356913183279743</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>0.572347266881029</v>
+        <v>0.429245283018868</v>
       </c>
       <c r="I50">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>0.0175685172171286</v>
+        <v>0.044</v>
       </c>
       <c r="K50">
-        <v>-0.0004661457898946</v>
+        <v>0.0004989189280381</v>
       </c>
       <c r="L50">
-        <v>-0.0006147474040096</v>
+        <v>0</v>
       </c>
       <c r="M50">
-        <v>-0.0003018051775839</v>
+        <v>0.0010035309755134</v>
       </c>
       <c r="N50">
-        <v>-2.65330183608335</v>
+        <v>1.13390665463205</v>
       </c>
       <c r="O50" t="s">
         <v>44</v>
       </c>
       <c r="P50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q50">
         <v>1851498</v>
@@ -4122,7 +4119,7 @@
         <v>62</v>
       </c>
       <c r="W50" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4130,49 +4127,49 @@
         <v>23</v>
       </c>
       <c r="B51" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C51">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D51" t="b">
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F51">
-        <v>0.99999999611901</v>
+        <v>0.992301169448607</v>
       </c>
       <c r="G51">
-        <v>0.0507462686567164</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>0.623880597014925</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="I51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J51">
-        <v>0.76</v>
+        <v>3.39</v>
       </c>
       <c r="K51">
-        <v>-0.0102259676954181</v>
+        <v>-0.0548980089791138</v>
       </c>
       <c r="L51">
-        <v>-0.0138122498264336</v>
+        <v>-0.105802039215649</v>
       </c>
       <c r="M51">
-        <v>-0.0070786876120754</v>
+        <v>-0.0160680957498588</v>
       </c>
       <c r="N51">
-        <v>-1.3455220651866</v>
+        <v>-1.61941029436914</v>
       </c>
       <c r="O51" t="s">
         <v>44</v>
       </c>
       <c r="P51" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="Q51">
         <v>1851498</v>
@@ -4193,7 +4190,7 @@
         <v>62</v>
       </c>
       <c r="W51" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4201,7 +4198,7 @@
         <v>23</v>
       </c>
       <c r="B52" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C52">
         <v>30</v>
@@ -4210,40 +4207,40 @@
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F52">
-        <v>0.999999981070417</v>
+        <v>0.574393013811386</v>
       </c>
       <c r="G52">
-        <v>0.0188087774294671</v>
+        <v>0.012987012987013</v>
       </c>
       <c r="H52">
-        <v>0.874608150470219</v>
+        <v>0.493506493506494</v>
       </c>
       <c r="I52">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J52">
-        <v>0.74</v>
+        <v>1.105</v>
       </c>
       <c r="K52">
-        <v>-0.0101061590937528</v>
+        <v>0</v>
       </c>
       <c r="L52">
-        <v>-0.0129627868210488</v>
+        <v>-0.0068576437605231</v>
       </c>
       <c r="M52">
-        <v>-0.0069170579828234</v>
+        <v>0.009276024422468301</v>
       </c>
       <c r="N52">
-        <v>-1.36569717483146</v>
+        <v>0</v>
       </c>
       <c r="O52" t="s">
         <v>44</v>
       </c>
       <c r="P52" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="Q52">
         <v>1851498</v>
@@ -4264,7 +4261,7 @@
         <v>62</v>
       </c>
       <c r="W52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4272,7 +4269,7 @@
         <v>23</v>
       </c>
       <c r="B53" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C53">
         <v>30</v>
@@ -4281,40 +4278,40 @@
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F53">
-        <v>0.999882238790483</v>
+        <v>0.215994108837479</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>0.0226628895184136</v>
       </c>
       <c r="H53">
-        <v>0.7215909090909089</v>
+        <v>0.155807365439093</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53">
-        <v>4.52</v>
+        <v>0.026</v>
       </c>
       <c r="K53">
-        <v>-0.0587725667189953</v>
+        <v>4.87777109928471E-05</v>
       </c>
       <c r="L53">
-        <v>-0.0832012207892725</v>
+        <v>-5.00342465753425E-05</v>
       </c>
       <c r="M53">
-        <v>-0.03173692295191</v>
+        <v>0.0001536697129889</v>
       </c>
       <c r="N53">
-        <v>-1.30027802475653</v>
+        <v>0.18760658074172</v>
       </c>
       <c r="O53" t="s">
         <v>44</v>
       </c>
       <c r="P53" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q53">
         <v>1851498</v>
@@ -4335,7 +4332,7 @@
         <v>62</v>
       </c>
       <c r="W53" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4343,49 +4340,49 @@
         <v>23</v>
       </c>
       <c r="B54" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C54">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D54" t="b">
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F54">
-        <v>0.768783636774762</v>
+        <v>0.999999435121489</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>0.380645161290323</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0.558064516129032</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J54">
-        <v>0.398</v>
+        <v>0.0171921956175433</v>
       </c>
       <c r="K54">
-        <v>0.03283423323569</v>
+        <v>-0.0004010739803955</v>
       </c>
       <c r="L54">
-        <v>-0.0307072415146075</v>
+        <v>-0.0005479064733804</v>
       </c>
       <c r="M54">
-        <v>0.085914045241621</v>
+        <v>-0.0002079417363867</v>
       </c>
       <c r="N54">
-        <v>8.249807345650749</v>
+        <v>-2.33288399758701</v>
       </c>
       <c r="O54" t="s">
         <v>44</v>
       </c>
       <c r="P54" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="Q54">
         <v>1851498</v>
@@ -4404,6 +4401,9 @@
       </c>
       <c r="V54" t="s">
         <v>62</v>
+      </c>
+      <c r="W54" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4411,49 +4411,49 @@
         <v>23</v>
       </c>
       <c r="B55" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C55">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F55">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>0.0656716417910448</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0.62089552238806</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55">
-        <v>100</v>
+        <v>0.767</v>
       </c>
       <c r="K55">
-        <v>0.494649931543689</v>
+        <v>-0.0150862551515678</v>
       </c>
       <c r="L55">
-        <v>-6.19594261354164</v>
+        <v>-0.0181557909499669</v>
       </c>
       <c r="M55">
-        <v>4.69776225288867</v>
+        <v>-0.0119941767760177</v>
       </c>
       <c r="N55">
-        <v>0.494649931543689</v>
+        <v>-1.96691722966985</v>
       </c>
       <c r="O55" t="s">
         <v>44</v>
       </c>
       <c r="P55" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q55">
         <v>1851498</v>
@@ -4472,6 +4472,9 @@
       </c>
       <c r="V55" t="s">
         <v>62</v>
+      </c>
+      <c r="W55" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4479,43 +4482,43 @@
         <v>23</v>
       </c>
       <c r="B56" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C56">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F56">
-        <v>0.95679463351315</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>0.0188087774294671</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0.8683385579937301</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J56">
-        <v>6.11</v>
+        <v>0.75</v>
       </c>
       <c r="K56">
-        <v>0.460920927844145</v>
+        <v>-0.0145484217841843</v>
       </c>
       <c r="L56">
-        <v>-0.0958046376685979</v>
+        <v>-0.0175370513023152</v>
       </c>
       <c r="M56">
-        <v>0.918896893665718</v>
+        <v>-0.011240842722234</v>
       </c>
       <c r="N56">
-        <v>7.54371404000238</v>
+        <v>-1.93978957122457</v>
       </c>
       <c r="O56" t="s">
         <v>44</v>
@@ -4541,55 +4544,58 @@
       <c r="V56" t="s">
         <v>62</v>
       </c>
+      <c r="W56" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="57" spans="1:23">
       <c r="A57" t="s">
         <v>23</v>
       </c>
       <c r="B57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C57">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F57">
-        <v>0.5</v>
+        <v>0.999958028473735</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0.738636363636364</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57">
-        <v>0.402</v>
+        <v>4.6</v>
       </c>
       <c r="K57">
-        <v>0.0009595008756567</v>
+        <v>-0.0650668036998972</v>
       </c>
       <c r="L57">
-        <v>-0.0192588163739839</v>
+        <v>-0.0918921565624287</v>
       </c>
       <c r="M57">
-        <v>0.0227856685728842</v>
+        <v>-0.0358295916247286</v>
       </c>
       <c r="N57">
-        <v>0.238681809864862</v>
+        <v>-1.41449573260646</v>
       </c>
       <c r="O57" t="s">
         <v>44</v>
       </c>
       <c r="P57" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q57">
         <v>1851498</v>
@@ -4608,6 +4614,9 @@
       </c>
       <c r="V57" t="s">
         <v>62</v>
+      </c>
+      <c r="W57" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4615,49 +4624,49 @@
         <v>23</v>
       </c>
       <c r="B58" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C58">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D58" t="b">
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F58">
-        <v>0.79051913742033</v>
+        <v>0.768783636774762</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
       <c r="H58">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="J58">
-        <v>98.05500000000001</v>
+        <v>0.44</v>
       </c>
       <c r="K58">
-        <v>0.710030647985989</v>
+        <v>0.0293084413804864</v>
       </c>
       <c r="L58">
-        <v>-0.907075884144425</v>
+        <v>-0.0307072415146075</v>
       </c>
       <c r="M58">
-        <v>1.74475743433901</v>
+        <v>0.0431685713882919</v>
       </c>
       <c r="N58">
-        <v>0.724114678482473</v>
+        <v>6.66100940465599</v>
       </c>
       <c r="O58" t="s">
         <v>44</v>
       </c>
       <c r="P58" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Q58">
         <v>1851498</v>
@@ -4683,19 +4692,19 @@
         <v>23</v>
       </c>
       <c r="B59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C59">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D59" t="b">
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F59">
-        <v>0.8144533152386511</v>
+        <v>0.5</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -4707,25 +4716,25 @@
         <v>0</v>
       </c>
       <c r="J59">
-        <v>4.951</v>
+        <v>105</v>
       </c>
       <c r="K59">
-        <v>0.14575296912114</v>
+        <v>0.958971009975062</v>
       </c>
       <c r="L59">
-        <v>-0.068932268998515</v>
+        <v>-6.19594261354164</v>
       </c>
       <c r="M59">
-        <v>0.310467208375229</v>
+        <v>6.07145390682793</v>
       </c>
       <c r="N59">
-        <v>2.94390969745789</v>
+        <v>0.913305723785774</v>
       </c>
       <c r="O59" t="s">
         <v>44</v>
       </c>
       <c r="P59" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="Q59">
         <v>1851498</v>
@@ -4751,19 +4760,19 @@
         <v>23</v>
       </c>
       <c r="B60" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C60">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D60" t="b">
         <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F60">
-        <v>0.162211845260789</v>
+        <v>0.59675202974633</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -4775,25 +4784,25 @@
         <v>0</v>
       </c>
       <c r="J60">
-        <v>0.42</v>
+        <v>6.11</v>
       </c>
       <c r="K60">
-        <v>-0.0037552759740259</v>
+        <v>0.124583542419462</v>
       </c>
       <c r="L60">
-        <v>-0.018569838181376</v>
+        <v>-0.58041351993789</v>
       </c>
       <c r="M60">
-        <v>0.0029677684517082</v>
+        <v>0.63124966382486</v>
       </c>
       <c r="N60">
-        <v>-0.894113327149039</v>
+        <v>2.03901051423014</v>
       </c>
       <c r="O60" t="s">
         <v>44</v>
       </c>
       <c r="P60" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q60">
         <v>1851498</v>
@@ -4819,49 +4828,49 @@
         <v>23</v>
       </c>
       <c r="B61" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C61">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D61" t="b">
         <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F61">
-        <v>0.814060303616951</v>
+        <v>0.946297681834873</v>
       </c>
       <c r="G61">
         <v>0</v>
       </c>
       <c r="H61">
-        <v>0.866666666666667</v>
+        <v>1</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61">
-        <v>97.78</v>
+        <v>0.402</v>
       </c>
       <c r="K61">
-        <v>0.354127295118674</v>
+        <v>0.0219309497816594</v>
       </c>
       <c r="L61">
-        <v>-0.613904775940823</v>
+        <v>-0.0005774672124002</v>
       </c>
       <c r="M61">
-        <v>1.01536269428748</v>
+        <v>0.0397630061723238</v>
       </c>
       <c r="N61">
-        <v>0.36216741165747</v>
+        <v>5.45546014469139</v>
       </c>
       <c r="O61" t="s">
         <v>44</v>
       </c>
       <c r="P61" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="Q61">
         <v>1851498</v>
@@ -4887,19 +4896,19 @@
         <v>23</v>
       </c>
       <c r="B62" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C62">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D62" t="b">
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F62">
-        <v>0.413332984835078</v>
+        <v>0.984088436306755</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -4911,25 +4920,25 @@
         <v>0</v>
       </c>
       <c r="J62">
-        <v>4.991</v>
+        <v>98.05500000000001</v>
       </c>
       <c r="K62">
-        <v>-0.0201656314699793</v>
+        <v>1.74985784313725</v>
       </c>
       <c r="L62">
-        <v>-0.08436433155608521</v>
+        <v>0.5830678147344061</v>
       </c>
       <c r="M62">
-        <v>0.131400271315318</v>
+        <v>4.29822646498115</v>
       </c>
       <c r="N62">
-        <v>-0.404039901221786</v>
+        <v>1.78456768460278</v>
       </c>
       <c r="O62" t="s">
         <v>44</v>
       </c>
       <c r="P62" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q62">
         <v>1851498</v>
@@ -4955,43 +4964,43 @@
         <v>23</v>
       </c>
       <c r="B63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C63">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D63" t="b">
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F63">
-        <v>0.639741131178222</v>
+        <v>0.8584345646688269</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
       <c r="H63">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63">
-        <v>98.66500000000001</v>
+        <v>5.1795</v>
       </c>
       <c r="K63">
-        <v>0.114992104694269</v>
+        <v>0.153385826771654</v>
       </c>
       <c r="L63">
-        <v>-0.459706121506374</v>
+        <v>-0.0510963544308905</v>
       </c>
       <c r="M63">
-        <v>0.63695886677823</v>
+        <v>0.283519548152288</v>
       </c>
       <c r="N63">
-        <v>0.116548020771569</v>
+        <v>2.961402196576</v>
       </c>
       <c r="O63" t="s">
         <v>44</v>
@@ -5015,6 +5024,278 @@
         <v>61</v>
       </c>
       <c r="V63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23">
+      <c r="A64" t="s">
+        <v>23</v>
+      </c>
+      <c r="B64" t="s">
+        <v>37</v>
+      </c>
+      <c r="C64">
+        <v>15</v>
+      </c>
+      <c r="D64" t="b">
+        <v>0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>40</v>
+      </c>
+      <c r="F64">
+        <v>0.383262649761786</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0.425</v>
+      </c>
+      <c r="K64">
+        <v>-0.0020137835975189</v>
+      </c>
+      <c r="L64">
+        <v>-0.0133768874369852</v>
+      </c>
+      <c r="M64">
+        <v>0.008909406304582</v>
+      </c>
+      <c r="N64">
+        <v>-0.473831434710342</v>
+      </c>
+      <c r="O64" t="s">
+        <v>44</v>
+      </c>
+      <c r="P64" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q64">
+        <v>1851498</v>
+      </c>
+      <c r="R64">
+        <v>5528097</v>
+      </c>
+      <c r="S64" t="s">
+        <v>59</v>
+      </c>
+      <c r="T64" t="s">
+        <v>60</v>
+      </c>
+      <c r="U64" t="s">
+        <v>61</v>
+      </c>
+      <c r="V64" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22">
+      <c r="A65" t="s">
+        <v>23</v>
+      </c>
+      <c r="B65" t="s">
+        <v>38</v>
+      </c>
+      <c r="C65">
+        <v>15</v>
+      </c>
+      <c r="D65" t="b">
+        <v>0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>40</v>
+      </c>
+      <c r="F65">
+        <v>0.83944419041107</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0.866666666666667</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>98.33</v>
+      </c>
+      <c r="K65">
+        <v>0.503793103448276</v>
+      </c>
+      <c r="L65">
+        <v>-0.457277348407397</v>
+      </c>
+      <c r="M65">
+        <v>1.44335577590827</v>
+      </c>
+      <c r="N65">
+        <v>0.5123493373825651</v>
+      </c>
+      <c r="O65" t="s">
+        <v>44</v>
+      </c>
+      <c r="P65" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q65">
+        <v>1851498</v>
+      </c>
+      <c r="R65">
+        <v>5528097</v>
+      </c>
+      <c r="S65" t="s">
+        <v>59</v>
+      </c>
+      <c r="T65" t="s">
+        <v>60</v>
+      </c>
+      <c r="U65" t="s">
+        <v>61</v>
+      </c>
+      <c r="V65" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22">
+      <c r="A66" t="s">
+        <v>23</v>
+      </c>
+      <c r="B66" t="s">
+        <v>39</v>
+      </c>
+      <c r="C66">
+        <v>15</v>
+      </c>
+      <c r="D66" t="b">
+        <v>0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>40</v>
+      </c>
+      <c r="F66">
+        <v>0.460579325112512</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>5.102</v>
+      </c>
+      <c r="K66">
+        <v>-0.0118587662337663</v>
+      </c>
+      <c r="L66">
+        <v>-0.08265660036285639</v>
+      </c>
+      <c r="M66">
+        <v>0.116106729009687</v>
+      </c>
+      <c r="N66">
+        <v>-0.232433677651241</v>
+      </c>
+      <c r="O66" t="s">
+        <v>44</v>
+      </c>
+      <c r="P66" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q66">
+        <v>1851498</v>
+      </c>
+      <c r="R66">
+        <v>5528097</v>
+      </c>
+      <c r="S66" t="s">
+        <v>59</v>
+      </c>
+      <c r="T66" t="s">
+        <v>60</v>
+      </c>
+      <c r="U66" t="s">
+        <v>61</v>
+      </c>
+      <c r="V66" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22">
+      <c r="A67" t="s">
+        <v>23</v>
+      </c>
+      <c r="B67" t="s">
+        <v>38</v>
+      </c>
+      <c r="C67">
+        <v>20</v>
+      </c>
+      <c r="D67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>40</v>
+      </c>
+      <c r="F67">
+        <v>0.885588803967332</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0.85</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>98.66500000000001</v>
+      </c>
+      <c r="K67">
+        <v>0.447948670141868</v>
+      </c>
+      <c r="L67">
+        <v>-0.277141312720421</v>
+      </c>
+      <c r="M67">
+        <v>0.999831385205572</v>
+      </c>
+      <c r="N67">
+        <v>0.454009699631955</v>
+      </c>
+      <c r="O67" t="s">
+        <v>44</v>
+      </c>
+      <c r="P67" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q67">
+        <v>1851498</v>
+      </c>
+      <c r="R67">
+        <v>5528097</v>
+      </c>
+      <c r="S67" t="s">
+        <v>59</v>
+      </c>
+      <c r="T67" t="s">
+        <v>60</v>
+      </c>
+      <c r="U67" t="s">
+        <v>61</v>
+      </c>
+      <c r="V67" t="s">
         <v>62</v>
       </c>
     </row>
